--- a/web/uploads/documents/1Hugo/20180316105917.xlsx
+++ b/web/uploads/documents/1Hugo/20180316105917.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="988">
   <si>
     <t>NOM</t>
   </si>
@@ -41,28 +41,2953 @@
     <t>MOT DE PASSE</t>
   </si>
   <si>
-    <t>DURAND</t>
-  </si>
-  <si>
-    <t>Hugo</t>
-  </si>
-  <si>
-    <t>hugo.durand@viaaduc.com</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>dzsf</t>
-  </si>
-  <si>
-    <t>hugo.durand@edugroupe.com</t>
+    <t>NICOLAS</t>
+  </si>
+  <si>
+    <t>NATHALIE</t>
+  </si>
+  <si>
+    <t>VALERIE</t>
+  </si>
+  <si>
+    <t>MARYSE</t>
+  </si>
+  <si>
+    <t>MATHIEU</t>
+  </si>
+  <si>
+    <t>SOLENE</t>
+  </si>
+  <si>
+    <t>GILLES</t>
+  </si>
+  <si>
+    <t>LAURENT</t>
+  </si>
+  <si>
+    <t>JEAN-CLAUDE</t>
+  </si>
+  <si>
+    <t>THIERRY</t>
+  </si>
+  <si>
+    <t>LAURENCE</t>
+  </si>
+  <si>
+    <t>CATHERINE</t>
+  </si>
+  <si>
+    <t>KARINE</t>
+  </si>
+  <si>
+    <t>AGNES</t>
+  </si>
+  <si>
+    <t>CLAUDE</t>
+  </si>
+  <si>
+    <t>SOPHIE</t>
+  </si>
+  <si>
+    <t>CHRISTINE</t>
+  </si>
+  <si>
+    <t>BOYER</t>
+  </si>
+  <si>
+    <t>PINTO-FRANCOIS</t>
+  </si>
+  <si>
+    <t>GARROUSTE</t>
+  </si>
+  <si>
+    <t>PREVOST</t>
+  </si>
+  <si>
+    <t>ETIENNE</t>
+  </si>
+  <si>
+    <t>BOURC'HIS</t>
+  </si>
+  <si>
+    <t>VAVROVIC</t>
+  </si>
+  <si>
+    <t>CABRAL</t>
+  </si>
+  <si>
+    <t>VERSCHUEREN</t>
+  </si>
+  <si>
+    <t>TINGAUD</t>
+  </si>
+  <si>
+    <t>VINCON</t>
+  </si>
+  <si>
+    <t>GALLO</t>
+  </si>
+  <si>
+    <t>MERLET</t>
+  </si>
+  <si>
+    <t>GRILLOT</t>
+  </si>
+  <si>
+    <t>LE BRUN</t>
+  </si>
+  <si>
+    <t>GUIS</t>
+  </si>
+  <si>
+    <t>DUVAL</t>
+  </si>
+  <si>
+    <t>BLOUTIN</t>
+  </si>
+  <si>
+    <t>PODYBKA</t>
+  </si>
+  <si>
+    <t>QUEMENEUR</t>
+  </si>
+  <si>
+    <t>LAMBERT</t>
+  </si>
+  <si>
+    <t>QUELARD</t>
+  </si>
+  <si>
+    <t>LAUDAT</t>
+  </si>
+  <si>
+    <t>RODRIGOT</t>
+  </si>
+  <si>
+    <t>SAYGILI</t>
+  </si>
+  <si>
+    <t>DECLUSEAU</t>
+  </si>
+  <si>
+    <t>SUBLARD</t>
+  </si>
+  <si>
+    <t>BOLYA</t>
+  </si>
+  <si>
+    <t>COLINART</t>
+  </si>
+  <si>
+    <t>BERHAB</t>
+  </si>
+  <si>
+    <t>ALFRED</t>
+  </si>
+  <si>
+    <t>FRERE</t>
+  </si>
+  <si>
+    <t>PARRA</t>
+  </si>
+  <si>
+    <t>MEJDI</t>
+  </si>
+  <si>
+    <t>GAMEE</t>
+  </si>
+  <si>
+    <t>GAUDICHE</t>
+  </si>
+  <si>
+    <t>LE LIBOUX</t>
+  </si>
+  <si>
+    <t>LEPRETRE-COINTREL</t>
+  </si>
+  <si>
+    <t>MARTINS</t>
+  </si>
+  <si>
+    <t>BAUDIN</t>
+  </si>
+  <si>
+    <t>LACOUR</t>
+  </si>
+  <si>
+    <t>COLLIN</t>
+  </si>
+  <si>
+    <t>FERRAND</t>
+  </si>
+  <si>
+    <t>VILAS-BOAS</t>
+  </si>
+  <si>
+    <t>AUDOIN</t>
+  </si>
+  <si>
+    <t>PICARD</t>
+  </si>
+  <si>
+    <t>RIGAL</t>
+  </si>
+  <si>
+    <t>THIEBAUT</t>
+  </si>
+  <si>
+    <t>BULLIER</t>
+  </si>
+  <si>
+    <t>DOUILLY</t>
+  </si>
+  <si>
+    <t>DIATTA</t>
+  </si>
+  <si>
+    <t>Diane</t>
+  </si>
+  <si>
+    <t>CURTET</t>
+  </si>
+  <si>
+    <t>PHILIPPEAUX</t>
+  </si>
+  <si>
+    <t>FRONTIN</t>
+  </si>
+  <si>
+    <t>LAVIE</t>
+  </si>
+  <si>
+    <t>RAOULT</t>
+  </si>
+  <si>
+    <t>BLAISE</t>
+  </si>
+  <si>
+    <t>SEPTIER</t>
+  </si>
+  <si>
+    <t>DUBOIS</t>
+  </si>
+  <si>
+    <t>DUCARROZ</t>
+  </si>
+  <si>
+    <t>ROUMIGUIER</t>
+  </si>
+  <si>
+    <t>DE HEMPTINNE LEPICARD</t>
+  </si>
+  <si>
+    <t>AHOUANSOU</t>
+  </si>
+  <si>
+    <t>CUILLANDRE</t>
+  </si>
+  <si>
+    <t>BESANCON</t>
+  </si>
+  <si>
+    <t>AUBLE</t>
+  </si>
+  <si>
+    <t>LANOE</t>
+  </si>
+  <si>
+    <t>LESEL</t>
+  </si>
+  <si>
+    <t>BORLANT</t>
+  </si>
+  <si>
+    <t>GSTACH</t>
+  </si>
+  <si>
+    <t>DEFER-BONIFACE</t>
+  </si>
+  <si>
+    <t>LE ROUX</t>
+  </si>
+  <si>
+    <t>SEVDASIZ</t>
+  </si>
+  <si>
+    <t>LALANNE</t>
+  </si>
+  <si>
+    <t>TRUCHON</t>
+  </si>
+  <si>
+    <t>BOROTRA</t>
+  </si>
+  <si>
+    <t>BENEYTO DAZELLE</t>
+  </si>
+  <si>
+    <t>SONNETTE</t>
+  </si>
+  <si>
+    <t>TERRACHON</t>
+  </si>
+  <si>
+    <t>RIMETTE</t>
+  </si>
+  <si>
+    <t>CAYLA</t>
+  </si>
+  <si>
+    <t>SEGALEN</t>
+  </si>
+  <si>
+    <t>BELISSONT</t>
+  </si>
+  <si>
+    <t>ASTIER</t>
+  </si>
+  <si>
+    <t>CHATOUX</t>
+  </si>
+  <si>
+    <t>COUSIN</t>
+  </si>
+  <si>
+    <t>MASSON</t>
+  </si>
+  <si>
+    <t>PIRIOU</t>
+  </si>
+  <si>
+    <t>PORTIER</t>
+  </si>
+  <si>
+    <t>TOURNAIRE</t>
+  </si>
+  <si>
+    <t>TROUSSEAU</t>
+  </si>
+  <si>
+    <t>ETCHEBERRY</t>
+  </si>
+  <si>
+    <t>BENYACAR</t>
+  </si>
+  <si>
+    <t>THEOPHILE</t>
+  </si>
+  <si>
+    <t>DESBRUERES</t>
+  </si>
+  <si>
+    <t>GUINE</t>
+  </si>
+  <si>
+    <t>MENDY</t>
+  </si>
+  <si>
+    <t>MERVAILLIE</t>
+  </si>
+  <si>
+    <t>PAILLARD</t>
+  </si>
+  <si>
+    <t>SAUVEGRAIN</t>
+  </si>
+  <si>
+    <t>GRENET</t>
+  </si>
+  <si>
+    <t>DREVON</t>
+  </si>
+  <si>
+    <t>ISSE</t>
+  </si>
+  <si>
+    <t>RICHARD</t>
+  </si>
+  <si>
+    <t>SAUVAGE</t>
+  </si>
+  <si>
+    <t>CLERC</t>
+  </si>
+  <si>
+    <t>BERTON</t>
+  </si>
+  <si>
+    <t>SILVA</t>
+  </si>
+  <si>
+    <t>RIFFAUD</t>
+  </si>
+  <si>
+    <t>KERAMOAL</t>
+  </si>
+  <si>
+    <t>LLORIA</t>
+  </si>
+  <si>
+    <t>PIEL</t>
+  </si>
+  <si>
+    <t>POUILLART</t>
+  </si>
+  <si>
+    <t>BLAIN</t>
+  </si>
+  <si>
+    <t>BARC</t>
+  </si>
+  <si>
+    <t>RAGUIN</t>
+  </si>
+  <si>
+    <t>LAMY</t>
+  </si>
+  <si>
+    <t>BLAISON-MURINGER</t>
+  </si>
+  <si>
+    <t>BURGAUD</t>
+  </si>
+  <si>
+    <t>BOHL</t>
+  </si>
+  <si>
+    <t>PACHECO-BRUNO</t>
+  </si>
+  <si>
+    <t>ERRANTE-MARTIN-CULET</t>
+  </si>
+  <si>
+    <t>LEFEVRE</t>
+  </si>
+  <si>
+    <t>TAYBI</t>
+  </si>
+  <si>
+    <t>ABRY</t>
+  </si>
+  <si>
+    <t>TAQUET</t>
+  </si>
+  <si>
+    <t>TREUSSART</t>
+  </si>
+  <si>
+    <t>BOULINEAU</t>
+  </si>
+  <si>
+    <t>BOURDEAU</t>
+  </si>
+  <si>
+    <t>VINCENT</t>
+  </si>
+  <si>
+    <t>GIBAJA</t>
+  </si>
+  <si>
+    <t>URIOT</t>
+  </si>
+  <si>
+    <t>LEITE</t>
+  </si>
+  <si>
+    <t>PAILLAS</t>
+  </si>
+  <si>
+    <t>GODARD</t>
+  </si>
+  <si>
+    <t>BRIOT</t>
+  </si>
+  <si>
+    <t>HAMEAU-ASMAR</t>
+  </si>
+  <si>
+    <t>LANDRE</t>
+  </si>
+  <si>
+    <t>ODDOUX</t>
+  </si>
+  <si>
+    <t>GRIMAUD</t>
+  </si>
+  <si>
+    <t>MERCURIN</t>
+  </si>
+  <si>
+    <t>DOUCHIN</t>
+  </si>
+  <si>
+    <t>JEANDEL</t>
+  </si>
+  <si>
+    <t>GUEVEL</t>
+  </si>
+  <si>
+    <t>DEVESA</t>
+  </si>
+  <si>
+    <t>LAMANDE</t>
+  </si>
+  <si>
+    <t>AUGE</t>
+  </si>
+  <si>
+    <t>CLOUZOT</t>
+  </si>
+  <si>
+    <t>QUERE</t>
+  </si>
+  <si>
+    <t>QUEIROGA</t>
+  </si>
+  <si>
+    <t>BAESEL</t>
+  </si>
+  <si>
+    <t>CHIVET</t>
+  </si>
+  <si>
+    <t>LANCHON</t>
+  </si>
+  <si>
+    <t>PICHOT</t>
+  </si>
+  <si>
+    <t>VIEUXMAIRE</t>
+  </si>
+  <si>
+    <t>ZAMPICCOLI</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>HOARAU</t>
+  </si>
+  <si>
+    <t>DUPONT</t>
+  </si>
+  <si>
+    <t>LEBRUMAN</t>
+  </si>
+  <si>
+    <t>MARTEL</t>
+  </si>
+  <si>
+    <t>ARNEAU</t>
+  </si>
+  <si>
+    <t>BAGE</t>
+  </si>
+  <si>
+    <t>BARBIER</t>
+  </si>
+  <si>
+    <t>DEMICHELIS CANU</t>
+  </si>
+  <si>
+    <t>DUPLAN</t>
+  </si>
+  <si>
+    <t>FAURE</t>
+  </si>
+  <si>
+    <t>FAYSSAL</t>
+  </si>
+  <si>
+    <t>GRAS</t>
+  </si>
+  <si>
+    <t>HELLOUIN</t>
+  </si>
+  <si>
+    <t>LE BOEUF</t>
+  </si>
+  <si>
+    <t>PRIEUR</t>
+  </si>
+  <si>
+    <t>QUILICHINI</t>
+  </si>
+  <si>
+    <t>ABDESLAM</t>
+  </si>
+  <si>
+    <t>BARSAMIAN</t>
+  </si>
+  <si>
+    <t>BECQ</t>
+  </si>
+  <si>
+    <t>BEGUE</t>
+  </si>
+  <si>
+    <t>BERTRAND</t>
+  </si>
+  <si>
+    <t>BLANCHARD</t>
+  </si>
+  <si>
+    <t>BUCQUET</t>
+  </si>
+  <si>
+    <t>CHAGOT</t>
+  </si>
+  <si>
+    <t>DEUVE</t>
+  </si>
+  <si>
+    <t>DOR</t>
+  </si>
+  <si>
+    <t>DUGAST</t>
+  </si>
+  <si>
+    <t>EON</t>
+  </si>
+  <si>
+    <t>GARZONI</t>
+  </si>
+  <si>
+    <t>GASLAIN</t>
+  </si>
+  <si>
+    <t>GAUTHIER</t>
+  </si>
+  <si>
+    <t>HUOT-BLANCHARD</t>
+  </si>
+  <si>
+    <t>KUTNERIAN</t>
+  </si>
+  <si>
+    <t>LAGARDE-BESSERO</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>MENAGER</t>
+  </si>
+  <si>
+    <t>MOUNY</t>
+  </si>
+  <si>
+    <t>RIGAULT</t>
+  </si>
+  <si>
+    <t>ROCHETTE CASTEL</t>
+  </si>
+  <si>
+    <t>ROGER</t>
+  </si>
+  <si>
+    <t>SARRAZIN</t>
+  </si>
+  <si>
+    <t>SCHNEIDER</t>
+  </si>
+  <si>
+    <t>VIALAR</t>
+  </si>
+  <si>
+    <t>CARTON</t>
+  </si>
+  <si>
+    <t>CRNOKRAK</t>
+  </si>
+  <si>
+    <t>GARGUELLE</t>
+  </si>
+  <si>
+    <t>LEFEBVRE</t>
+  </si>
+  <si>
+    <t>LULL</t>
+  </si>
+  <si>
+    <t>OVOIS-PASQUIERS</t>
+  </si>
+  <si>
+    <t>OLIVIER</t>
+  </si>
+  <si>
+    <t>SYLVIE</t>
+  </si>
+  <si>
+    <t>STEPHANIE</t>
+  </si>
+  <si>
+    <t>HERVE</t>
+  </si>
+  <si>
+    <t>STEFAN</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>MARC</t>
+  </si>
+  <si>
+    <t>JEAN-MICHEL</t>
+  </si>
+  <si>
+    <t>PATRICK</t>
+  </si>
+  <si>
+    <t>FRANCK</t>
+  </si>
+  <si>
+    <t>JEAN-LUC</t>
+  </si>
+  <si>
+    <t>MICKAEL</t>
+  </si>
+  <si>
+    <t>JULIEN</t>
+  </si>
+  <si>
+    <t>CORINNE</t>
+  </si>
+  <si>
+    <t>SABINE</t>
+  </si>
+  <si>
+    <t>ALAIN</t>
+  </si>
+  <si>
+    <t>Regaib</t>
+  </si>
+  <si>
+    <t>RHALED</t>
+  </si>
+  <si>
+    <t>BENJAMIN</t>
+  </si>
+  <si>
+    <t>FARID</t>
+  </si>
+  <si>
+    <t>MOHAMED</t>
+  </si>
+  <si>
+    <t>CHRISTOPHE</t>
+  </si>
+  <si>
+    <t>ERIC</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>SANDRINE</t>
+  </si>
+  <si>
+    <t>BERNARD</t>
+  </si>
+  <si>
+    <t>LAETITIA</t>
+  </si>
+  <si>
+    <t>JACINTO</t>
+  </si>
+  <si>
+    <t>PASCALE</t>
+  </si>
+  <si>
+    <t>BEATRICE</t>
+  </si>
+  <si>
+    <t>JEAN-CHRISTOPHE</t>
+  </si>
+  <si>
+    <t>INGRID</t>
+  </si>
+  <si>
+    <t>REBECCA-VALERY</t>
+  </si>
+  <si>
+    <t>NAZAIRE</t>
+  </si>
+  <si>
+    <t>DEMARQUE</t>
+  </si>
+  <si>
+    <t>ROSINE</t>
+  </si>
+  <si>
+    <t>FREDERIC</t>
+  </si>
+  <si>
+    <t>FABRICE</t>
+  </si>
+  <si>
+    <t>REGIS</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>LAURE</t>
+  </si>
+  <si>
+    <t>FREDERIQUE</t>
+  </si>
+  <si>
+    <t>ANNE-SOPHIE</t>
+  </si>
+  <si>
+    <t>CHRISTELLE</t>
+  </si>
+  <si>
+    <t>MARIE</t>
+  </si>
+  <si>
+    <t>CLOTILDE</t>
+  </si>
+  <si>
+    <t>PASCAL</t>
+  </si>
+  <si>
+    <t>CHANTAL</t>
+  </si>
+  <si>
+    <t>MARION</t>
+  </si>
+  <si>
+    <t>SIMON</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>ARMELLE</t>
+  </si>
+  <si>
+    <t>JAMILA</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>FLORENCE</t>
+  </si>
+  <si>
+    <t>HELENE</t>
+  </si>
+  <si>
+    <t>BRIGITTE</t>
+  </si>
+  <si>
+    <t>ELIANE</t>
+  </si>
+  <si>
+    <t>ISABELLE</t>
+  </si>
+  <si>
+    <t>CARINE</t>
+  </si>
+  <si>
+    <t>JEAN MICHEL</t>
+  </si>
+  <si>
+    <t>ELODIE</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>CLEMENCE</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>SYLVAIN</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>DIDIER</t>
+  </si>
+  <si>
+    <t>ANNE-GABRIELLE</t>
+  </si>
+  <si>
+    <t>DENIS</t>
+  </si>
+  <si>
+    <t>MARTINE</t>
+  </si>
+  <si>
+    <t>SERGE</t>
+  </si>
+  <si>
+    <t>FRANCOISE</t>
+  </si>
+  <si>
+    <t>JEAN-LOUIS</t>
+  </si>
+  <si>
+    <t>ANNE-MARIE</t>
+  </si>
+  <si>
+    <t>CLAUDINE</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Emile</t>
+  </si>
+  <si>
+    <t>BENOIT</t>
+  </si>
+  <si>
+    <t>VERONIQUE</t>
+  </si>
+  <si>
+    <t>ISABELLE FABIENNE</t>
+  </si>
+  <si>
+    <t>HAYAT</t>
+  </si>
+  <si>
+    <t>YOLANDE</t>
+  </si>
+  <si>
+    <t>ANNE LISE</t>
+  </si>
+  <si>
+    <t>PHILIPPE</t>
+  </si>
+  <si>
+    <t>REMI</t>
+  </si>
+  <si>
+    <t>MICHEL</t>
+  </si>
+  <si>
+    <t>MANUEL</t>
+  </si>
+  <si>
+    <t>JOAQUIM</t>
+  </si>
+  <si>
+    <t>ANNE-CARINE</t>
+  </si>
+  <si>
+    <t>SYLVENE</t>
+  </si>
+  <si>
+    <t>LYDWINE</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>JACQUELINE</t>
+  </si>
+  <si>
+    <t>INGRID MARCE</t>
+  </si>
+  <si>
+    <t>NELLY</t>
+  </si>
+  <si>
+    <t>MARIE ROSE</t>
+  </si>
+  <si>
+    <t>PAULINE</t>
+  </si>
+  <si>
+    <t>CAROLE</t>
+  </si>
+  <si>
+    <t>FLORENT</t>
+  </si>
+  <si>
+    <t>TIFENN</t>
+  </si>
+  <si>
+    <t>Laurent</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>ANNIE</t>
+  </si>
+  <si>
+    <t>CORINE</t>
+  </si>
+  <si>
+    <t>AURELIE</t>
+  </si>
+  <si>
+    <t>YANN</t>
+  </si>
+  <si>
+    <t>ALEXANDRA</t>
+  </si>
+  <si>
+    <t>FRANCOIS</t>
+  </si>
+  <si>
+    <t>DOMINIQUE</t>
+  </si>
+  <si>
+    <t>CHRYSTELLE</t>
+  </si>
+  <si>
+    <t>JEAN BERNARD</t>
+  </si>
+  <si>
+    <t>SOUGOUMAR</t>
+  </si>
+  <si>
+    <t>MATHILDE</t>
+  </si>
+  <si>
+    <t>MARIE-ANNE</t>
+  </si>
+  <si>
+    <t>ROMAIN</t>
+  </si>
+  <si>
+    <t>WILFRID</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>Aurore</t>
+  </si>
+  <si>
+    <t>STEPHANE</t>
+  </si>
+  <si>
+    <t>ALASSANE</t>
+  </si>
+  <si>
+    <t>SOIZIC</t>
+  </si>
+  <si>
+    <t>ANTHONY</t>
+  </si>
+  <si>
+    <t>JENNY</t>
+  </si>
+  <si>
+    <t>CLEMENTINE</t>
+  </si>
+  <si>
+    <t>CECILE</t>
+  </si>
+  <si>
+    <t>Mathilde</t>
+  </si>
+  <si>
+    <t>LYDIE</t>
+  </si>
+  <si>
+    <t>oboyer@yvelines.fr</t>
+  </si>
+  <si>
+    <t>spinto-francois@yvelines.fr</t>
+  </si>
+  <si>
+    <t>jgarrouste@yvelines.fr</t>
+  </si>
+  <si>
+    <t>Stouret-DiQual@yvelines.fr</t>
+  </si>
+  <si>
+    <t>getienne@yvelines.fr</t>
+  </si>
+  <si>
+    <t>hbourchis@yvelines.fr</t>
+  </si>
+  <si>
+    <t>svavrovic@yvelines.fr</t>
+  </si>
+  <si>
+    <t>jcabral@yvelines.fr</t>
+  </si>
+  <si>
+    <t>mverschueren@yvelines.fr</t>
+  </si>
+  <si>
+    <t>jtingaud@yvelines.fr</t>
+  </si>
+  <si>
+    <t>pvincon@yvelines.fr</t>
+  </si>
+  <si>
+    <t>lgallo@yvelines.fr</t>
+  </si>
+  <si>
+    <t>fmerlet@yvelines.fr</t>
+  </si>
+  <si>
+    <t>ogrillot@yvelines.fr</t>
+  </si>
+  <si>
+    <t>jclebrun@yvelines.fr</t>
+  </si>
+  <si>
+    <t>jlguis@yvelines.fr</t>
+  </si>
+  <si>
+    <t>mduval@yvelines.fr</t>
+  </si>
+  <si>
+    <t>jbloutin@yvelines.fr</t>
+  </si>
+  <si>
+    <t>lpodybka@yvelines.fr</t>
+  </si>
+  <si>
+    <t>tquemeneur@yvelines.fr</t>
+  </si>
+  <si>
+    <t>clambert@yvelines.fr</t>
+  </si>
+  <si>
+    <t>squelard@yvelines.fr</t>
+  </si>
+  <si>
+    <t>MLaudat@yvelines.fr</t>
+  </si>
+  <si>
+    <t>arodrigot@yvelines.fr</t>
+  </si>
+  <si>
+    <t>rsaygili@yvelines.fr</t>
+  </si>
+  <si>
+    <t>ldecluseau@yvelines.fr</t>
+  </si>
+  <si>
+    <t>fsublard@yvelines.fr</t>
+  </si>
+  <si>
+    <t>gbolya@yvelines.fr</t>
+  </si>
+  <si>
+    <t>CColinart@yvelines.fr</t>
+  </si>
+  <si>
+    <t>rberhab@yvelines.fr</t>
+  </si>
+  <si>
+    <t>malfred@yvelines.fr</t>
+  </si>
+  <si>
+    <t>bfrere@yvelines.fr</t>
+  </si>
+  <si>
+    <t>nparra@yvelines.fr</t>
+  </si>
+  <si>
+    <t>fmejdi@yvelines.fr</t>
+  </si>
+  <si>
+    <t>mgamee@yvelines.fr</t>
+  </si>
+  <si>
+    <t>cgaudiche@yvelines.fr</t>
+  </si>
+  <si>
+    <t>eleliboux@yvelines.fr</t>
+  </si>
+  <si>
+    <t>mlepretre-cointrel@yvelines.fr</t>
+  </si>
+  <si>
+    <t>vmartins@yvelines.fr</t>
+  </si>
+  <si>
+    <t>sbaudin@yvelines.fr</t>
+  </si>
+  <si>
+    <t>blacour@yvelines.fr</t>
+  </si>
+  <si>
+    <t>fcollin@yvelines.fr</t>
+  </si>
+  <si>
+    <t>lferrand@yvelines.fr</t>
+  </si>
+  <si>
+    <t>JVilas-Boas@Yvelines.fr</t>
+  </si>
+  <si>
+    <t>paudoin@yvelines.fr</t>
+  </si>
+  <si>
+    <t>bpicard@yvelines.fr</t>
+  </si>
+  <si>
+    <t>jcrigal@yvelines.fr</t>
+  </si>
+  <si>
+    <t>AThiebaut@yvelines.fr</t>
+  </si>
+  <si>
+    <t>ibullier@yvelines.fr</t>
+  </si>
+  <si>
+    <t>RDORCEUS@Yvelines.fr</t>
+  </si>
+  <si>
+    <t>ndiatta@yvelines.fr</t>
+  </si>
+  <si>
+    <t>ddemarque@yvelines.fr</t>
+  </si>
+  <si>
+    <t>rcurtet@yvelines.fr</t>
+  </si>
+  <si>
+    <t>FPhilippeaux@Yvelines.fr</t>
+  </si>
+  <si>
+    <t>ofrontin@yvelines.fr</t>
+  </si>
+  <si>
+    <t>fetienne@yvelines.fr</t>
+  </si>
+  <si>
+    <t>mlavie@yvelines.fr</t>
+  </si>
+  <si>
+    <t>rraoult@yvelines.fr</t>
+  </si>
+  <si>
+    <t>bblaise@yvelines.fr</t>
+  </si>
+  <si>
+    <t>lseptier@yvelines.fr</t>
+  </si>
+  <si>
+    <t>fdubois@yvelines.fr</t>
+  </si>
+  <si>
+    <t>ADUCARROZ@Yvelines.fr</t>
+  </si>
+  <si>
+    <t>croumiguier@yvelines.fr</t>
+  </si>
+  <si>
+    <t>mlepicard@yvelines.fr</t>
+  </si>
+  <si>
+    <t>cahouansou@yvelines.fr</t>
+  </si>
+  <si>
+    <t>scuillandre@yvelines.fr</t>
+  </si>
+  <si>
+    <t>cbesancon@yvelines.fr</t>
+  </si>
+  <si>
+    <t>pauble@yvelines.fr</t>
+  </si>
+  <si>
+    <t>clanoe@yvelines.fr</t>
+  </si>
+  <si>
+    <t>mlesel@yvelines.fr</t>
+  </si>
+  <si>
+    <t>sborlant@yvelines.fr</t>
+  </si>
+  <si>
+    <t>cgstach@yvelines.fr</t>
+  </si>
+  <si>
+    <t>pdeferboniface@yvelines.fr</t>
+  </si>
+  <si>
+    <t>aleroux@yvelines.fr</t>
+  </si>
+  <si>
+    <t>jbaya@yvelines.fr</t>
+  </si>
+  <si>
+    <t>llalanne@yvelines.fr</t>
+  </si>
+  <si>
+    <t>mtruchon@yvelines.fr</t>
+  </si>
+  <si>
+    <t>aborotra@yvelines.fr</t>
+  </si>
+  <si>
+    <t>nbeneyto@yvelines.fr</t>
+  </si>
+  <si>
+    <t>csonnette@yvelines.fr</t>
+  </si>
+  <si>
+    <t>fterrachon@yvelines.fr</t>
+  </si>
+  <si>
+    <t>hrimette@yvelines.fr</t>
+  </si>
+  <si>
+    <t>bcayla@yvelines.fr</t>
+  </si>
+  <si>
+    <t>msegalen@yvelines.fr</t>
+  </si>
+  <si>
+    <t>ebelissont@yvelines.fr</t>
+  </si>
+  <si>
+    <t>castier@yvelines.fr</t>
+  </si>
+  <si>
+    <t>ichatoux@yvelines.fr</t>
+  </si>
+  <si>
+    <t>rcousin@yvelines.fr</t>
+  </si>
+  <si>
+    <t>nmasson@yvelines.fr</t>
+  </si>
+  <si>
+    <t>cpiriou@yvelines.fr</t>
+  </si>
+  <si>
+    <t>JPortier@yvelines.fr</t>
+  </si>
+  <si>
+    <t>ATournaire@yvelines.fr</t>
+  </si>
+  <si>
+    <t>itrousseau@yvelines.fr</t>
+  </si>
+  <si>
+    <t>aetcheberry@yvelines.fr</t>
+  </si>
+  <si>
+    <t>ebenyacar@yvelines.fr</t>
+  </si>
+  <si>
+    <t>stheophile@yvelines.fr</t>
+  </si>
+  <si>
+    <t>cdesbrueres@yvelines.fr</t>
+  </si>
+  <si>
+    <t>lguine@yvelines.fr</t>
+  </si>
+  <si>
+    <t>gmendy@yvelines.fr</t>
+  </si>
+  <si>
+    <t>smervaillie@yvelines.fr</t>
+  </si>
+  <si>
+    <t>cpaillard@yvelines.fr</t>
+  </si>
+  <si>
+    <t>dsauvegrain@yvelines.fr</t>
+  </si>
+  <si>
+    <t>aggrenet@yvelines.fr</t>
+  </si>
+  <si>
+    <t>bdrevon@yvelines.fr</t>
+  </si>
+  <si>
+    <t>disse@yvelines.fr</t>
+  </si>
+  <si>
+    <t>mrichard@yvelines.fr</t>
+  </si>
+  <si>
+    <t>ssauvage@yvelines.fr</t>
+  </si>
+  <si>
+    <t>pclerc@yvelines.fr</t>
+  </si>
+  <si>
+    <t>sberton@yvelines.fr</t>
+  </si>
+  <si>
+    <t>fsilva@yvelines.fr</t>
+  </si>
+  <si>
+    <t>jlriffaud@yvelines.fr</t>
+  </si>
+  <si>
+    <t>amkeramoal@yvelines.fr</t>
+  </si>
+  <si>
+    <t>llloria@yvelines.fr</t>
+  </si>
+  <si>
+    <t>spiel@yvelines.fr</t>
+  </si>
+  <si>
+    <t>cpouillart@yvelines.fr</t>
+  </si>
+  <si>
+    <t>cblain@yvelines.fr</t>
+  </si>
+  <si>
+    <t>jbarc@yvelines.fr</t>
+  </si>
+  <si>
+    <t>iraguin@yvelines.fr</t>
+  </si>
+  <si>
+    <t>elamy@yvelines.fr</t>
+  </si>
+  <si>
+    <t>eblaison@yvelines.fr</t>
+  </si>
+  <si>
+    <t>bburgaud@yvelines.fr</t>
+  </si>
+  <si>
+    <t>lbohl@yvelines.fr</t>
+  </si>
+  <si>
+    <t>npacheco@yvelines.fr</t>
+  </si>
+  <si>
+    <t>verrante-martin-culet@yvelines.fr</t>
+  </si>
+  <si>
+    <t>ilefevre@yvelines.fr</t>
+  </si>
+  <si>
+    <t>htaybi@yvelines.fr</t>
+  </si>
+  <si>
+    <t>vabry@yvelines.fr</t>
+  </si>
+  <si>
+    <t>ytaquet@yvelines.fr</t>
+  </si>
+  <si>
+    <t>altreussart@yvelines.fr</t>
+  </si>
+  <si>
+    <t>pboulineau@yvelines.fr</t>
+  </si>
+  <si>
+    <t>pbourdeau@yvelines.fr</t>
+  </si>
+  <si>
+    <t>rvincent@yvelines.fr</t>
+  </si>
+  <si>
+    <t>mgibaja@yvelines.fr</t>
+  </si>
+  <si>
+    <t>muriot@yvelines.fr</t>
+  </si>
+  <si>
+    <t>jleite@yvelines.fr</t>
+  </si>
+  <si>
+    <t>apaillas@yvelines.fr</t>
+  </si>
+  <si>
+    <t>chgodard@yvelines.fr</t>
+  </si>
+  <si>
+    <t>sbriot@yvelines.fr</t>
+  </si>
+  <si>
+    <t>lhameauasmar@yvelines.fr</t>
+  </si>
+  <si>
+    <t>dlandre@yvelines.fr</t>
+  </si>
+  <si>
+    <t>joddoux@yvelines.fr</t>
+  </si>
+  <si>
+    <t>igrimaud@yvelines.fr</t>
+  </si>
+  <si>
+    <t>imercurin@yvelines.fr</t>
+  </si>
+  <si>
+    <t>ldouchin@yvelines.fr</t>
+  </si>
+  <si>
+    <t>sjeandel@yvelines.fr</t>
+  </si>
+  <si>
+    <t>nguevel@yvelines.fr</t>
+  </si>
+  <si>
+    <t>sdevesa@yvelines.fr</t>
+  </si>
+  <si>
+    <t>mlamande@yvelines.fr</t>
+  </si>
+  <si>
+    <t>pauge@yvelines.fr</t>
+  </si>
+  <si>
+    <t>cclouzot@yvelines.fr</t>
+  </si>
+  <si>
+    <t>vquere@yvelines.fr</t>
+  </si>
+  <si>
+    <t>iqueiroga@yvelines.fr</t>
+  </si>
+  <si>
+    <t>fbaesel@yvelines.fr</t>
+  </si>
+  <si>
+    <t>cchivet@yvelines.fr</t>
+  </si>
+  <si>
+    <t>blanchon@yvelines.fr</t>
+  </si>
+  <si>
+    <t>tpichot@yvelines.fr</t>
+  </si>
+  <si>
+    <t>ovieuxmaire@yvelines.fr</t>
+  </si>
+  <si>
+    <t>LZampiccoli@yvelines.fr</t>
+  </si>
+  <si>
+    <t>cmartinez@yvelines.fr</t>
+  </si>
+  <si>
+    <t>vhoarau@yvelines.fr</t>
+  </si>
+  <si>
+    <t>florencecollin@yvelines.fr</t>
+  </si>
+  <si>
+    <t>adupont@yvelines.fr</t>
+  </si>
+  <si>
+    <t>clebruman@yvelines.fr</t>
+  </si>
+  <si>
+    <t>tmartel@yvelines.fr</t>
+  </si>
+  <si>
+    <t>aarneau@yvelines.fr</t>
+  </si>
+  <si>
+    <t>ybage@yvelines.fr</t>
+  </si>
+  <si>
+    <t>nbarbier@yvelines.fr</t>
+  </si>
+  <si>
+    <t>ademichelis@yvelines.fr</t>
+  </si>
+  <si>
+    <t>cduplan@yvelines.fr</t>
+  </si>
+  <si>
+    <t>armellefaure@yvelines.fr</t>
+  </si>
+  <si>
+    <t>cfayssal@yvelines.fr</t>
+  </si>
+  <si>
+    <t>sgras@yvelines.fr</t>
+  </si>
+  <si>
+    <t>fhellouin@yvelines.fr</t>
+  </si>
+  <si>
+    <t>dleboeuf@yvelines.fr</t>
+  </si>
+  <si>
+    <t>cprieur@yvelines.fr</t>
+  </si>
+  <si>
+    <t>bquilichini@yvelines.fr</t>
+  </si>
+  <si>
+    <t>pabdeslam@yvelines.fr</t>
+  </si>
+  <si>
+    <t>jbbarsamian@yvelines.fr</t>
+  </si>
+  <si>
+    <t>Kbecq@yvelines.fr</t>
+  </si>
+  <si>
+    <t>Nbegue@yvelines.fr</t>
+  </si>
+  <si>
+    <t>Sobertrand@yvelines.fr</t>
+  </si>
+  <si>
+    <t>Sblanchard@yvelines.fr</t>
+  </si>
+  <si>
+    <t>Bbucquet@yvelines.fr</t>
+  </si>
+  <si>
+    <t>Ochagot@yvelines.fr</t>
+  </si>
+  <si>
+    <t>mdeuve@yvelines.fr</t>
+  </si>
+  <si>
+    <t>mador@yvelines.fr</t>
+  </si>
+  <si>
+    <t>rdugast@yvelines.fr</t>
+  </si>
+  <si>
+    <t>weon@yvelines.fr</t>
+  </si>
+  <si>
+    <t>dgarzoni@yvelines.fr</t>
+  </si>
+  <si>
+    <t>mgarzoni@yvelines.fr</t>
+  </si>
+  <si>
+    <t>cgaslain@yvelines.fr</t>
+  </si>
+  <si>
+    <t>agauthier@yvelines.fr</t>
+  </si>
+  <si>
+    <t>chuot@yvelines.fr</t>
+  </si>
+  <si>
+    <t>skutnerian@yvelines.fr</t>
+  </si>
+  <si>
+    <t>aslagarde@yvelines.fr</t>
+  </si>
+  <si>
+    <t>aly@yvelines.fr</t>
+  </si>
+  <si>
+    <t>smenager@yvelines.fr</t>
+  </si>
+  <si>
+    <t>tmouny@yvelines.fr</t>
+  </si>
+  <si>
+    <t>arigault@yvelines.fr</t>
+  </si>
+  <si>
+    <t>hrochette-castel@yvelines.fr</t>
+  </si>
+  <si>
+    <t>nroger@yvelines.fr</t>
+  </si>
+  <si>
+    <t>hsarrazin@yvelines.fr</t>
+  </si>
+  <si>
+    <t>jschneider@yvelines.fr</t>
+  </si>
+  <si>
+    <t>cvialar@yvelines.fr</t>
+  </si>
+  <si>
+    <t>acarton@yvelines.fr</t>
+  </si>
+  <si>
+    <t>ccrnokrak@yvelines.fr</t>
+  </si>
+  <si>
+    <t>cgarguelle@yvelines.fr</t>
+  </si>
+  <si>
+    <t>flefebvre@yvelines.fr</t>
+  </si>
+  <si>
+    <t>mlull@yvelines.fr</t>
+  </si>
+  <si>
+    <t>lovois-pasquiers@yvelines.fr</t>
+  </si>
+  <si>
+    <t>BOOLCD7843</t>
+  </si>
+  <si>
+    <t>PISYCD7841</t>
+  </si>
+  <si>
+    <t>GAJECD784</t>
+  </si>
+  <si>
+    <t>PRSTCD7897</t>
+  </si>
+  <si>
+    <t>ETGICD7848</t>
+  </si>
+  <si>
+    <t>BOHECD7869</t>
+  </si>
+  <si>
+    <t>VASTCD7835</t>
+  </si>
+  <si>
+    <t>CAJOCD7846</t>
+  </si>
+  <si>
+    <t>VEMACD782</t>
+  </si>
+  <si>
+    <t>TIJECD7813</t>
+  </si>
+  <si>
+    <t>VIPACD7878</t>
+  </si>
+  <si>
+    <t>GALACD7812</t>
+  </si>
+  <si>
+    <t>MEFRCD7843</t>
+  </si>
+  <si>
+    <t>GROLCD7887</t>
+  </si>
+  <si>
+    <t>LEJECD783</t>
+  </si>
+  <si>
+    <t>GUJECD7815</t>
+  </si>
+  <si>
+    <t>DUMICD7894</t>
+  </si>
+  <si>
+    <t>BLJUCD7849</t>
+  </si>
+  <si>
+    <t>POLACD786</t>
+  </si>
+  <si>
+    <t>QUTHCD781</t>
+  </si>
+  <si>
+    <t>LACOCD7812</t>
+  </si>
+  <si>
+    <t>QUSACD7817</t>
+  </si>
+  <si>
+    <t>LAMICD7825</t>
+  </si>
+  <si>
+    <t>ROALCD7850</t>
+  </si>
+  <si>
+    <t>SAReCD7815</t>
+  </si>
+  <si>
+    <t>DELACD7891</t>
+  </si>
+  <si>
+    <t>SUFRCD7884</t>
+  </si>
+  <si>
+    <t>BOGICD7818</t>
+  </si>
+  <si>
+    <t>COCLCD7817</t>
+  </si>
+  <si>
+    <t>BERHCD7880</t>
+  </si>
+  <si>
+    <t>ALMACD7817</t>
+  </si>
+  <si>
+    <t>FRBECD7886</t>
+  </si>
+  <si>
+    <t>PANICD7881</t>
+  </si>
+  <si>
+    <t>MEFACD7834</t>
+  </si>
+  <si>
+    <t>GAMOCD7841</t>
+  </si>
+  <si>
+    <t>GACHCD7841</t>
+  </si>
+  <si>
+    <t>LEERCD7894</t>
+  </si>
+  <si>
+    <t>LEMACD7894</t>
+  </si>
+  <si>
+    <t>MAVICD7855</t>
+  </si>
+  <si>
+    <t>BASACD7870</t>
+  </si>
+  <si>
+    <t>LABECD7860</t>
+  </si>
+  <si>
+    <t>COFRCD7854</t>
+  </si>
+  <si>
+    <t>FELACD7880</t>
+  </si>
+  <si>
+    <t>VIJACD7852</t>
+  </si>
+  <si>
+    <t>AUPACD788</t>
+  </si>
+  <si>
+    <t>PIBECD7847</t>
+  </si>
+  <si>
+    <t>RIJECD7866</t>
+  </si>
+  <si>
+    <t>THAGCD7821</t>
+  </si>
+  <si>
+    <t>BUINCD7875</t>
+  </si>
+  <si>
+    <t>DORECD7864</t>
+  </si>
+  <si>
+    <t>DINACD7835</t>
+  </si>
+  <si>
+    <t>DEMDiCD76</t>
+  </si>
+  <si>
+    <t>CUROCD786</t>
+  </si>
+  <si>
+    <t>PHFRCD7865</t>
+  </si>
+  <si>
+    <t>FROLCD7865</t>
+  </si>
+  <si>
+    <t>ETFACD7870</t>
+  </si>
+  <si>
+    <t>LAMACD7849</t>
+  </si>
+  <si>
+    <t>RARECD789</t>
+  </si>
+  <si>
+    <t>BLBRCD7880</t>
+  </si>
+  <si>
+    <t>SELACD7824</t>
+  </si>
+  <si>
+    <t>DUFRCD7854</t>
+  </si>
+  <si>
+    <t>DUANCD7818</t>
+  </si>
+  <si>
+    <t>ROCHCD7898</t>
+  </si>
+  <si>
+    <t>DEMACD7883</t>
+  </si>
+  <si>
+    <t>AHCLCD7836</t>
+  </si>
+  <si>
+    <t>CUSOCD7838</t>
+  </si>
+  <si>
+    <t>BECACD7858</t>
+  </si>
+  <si>
+    <t>AUPACD7840</t>
+  </si>
+  <si>
+    <t>LACHCD7880</t>
+  </si>
+  <si>
+    <t>LEMACD7854</t>
+  </si>
+  <si>
+    <t>BOSICD7833</t>
+  </si>
+  <si>
+    <t>GSCACD7815</t>
+  </si>
+  <si>
+    <t>DEPACD7855</t>
+  </si>
+  <si>
+    <t>LEARCD786</t>
+  </si>
+  <si>
+    <t>SEJACD789</t>
+  </si>
+  <si>
+    <t>LALACD789</t>
+  </si>
+  <si>
+    <t>TRMACD7871</t>
+  </si>
+  <si>
+    <t>BOALCD7867</t>
+  </si>
+  <si>
+    <t>BENACD7866</t>
+  </si>
+  <si>
+    <t>SOCOCD7851</t>
+  </si>
+  <si>
+    <t>TEFLCD7861</t>
+  </si>
+  <si>
+    <t>RIHECD7817</t>
+  </si>
+  <si>
+    <t>CABRCD7871</t>
+  </si>
+  <si>
+    <t>SEMACD7853</t>
+  </si>
+  <si>
+    <t>BEELCD7870</t>
+  </si>
+  <si>
+    <t>ASCACD7820</t>
+  </si>
+  <si>
+    <t>CHISCD7842</t>
+  </si>
+  <si>
+    <t>CORICD7886</t>
+  </si>
+  <si>
+    <t>MANACD7812</t>
+  </si>
+  <si>
+    <t>PICACD7885</t>
+  </si>
+  <si>
+    <t>POJECD7883</t>
+  </si>
+  <si>
+    <t>TOARCD7847</t>
+  </si>
+  <si>
+    <t>TRISCD7851</t>
+  </si>
+  <si>
+    <t>ETALCD7828</t>
+  </si>
+  <si>
+    <t>BEELCD7884</t>
+  </si>
+  <si>
+    <t>THSOCD7870</t>
+  </si>
+  <si>
+    <t>DECLCD7873</t>
+  </si>
+  <si>
+    <t>GULACD7876</t>
+  </si>
+  <si>
+    <t>MEGACD7844</t>
+  </si>
+  <si>
+    <t>MESYCD7853</t>
+  </si>
+  <si>
+    <t>PACHCD7874</t>
+  </si>
+  <si>
+    <t>SADICD7890</t>
+  </si>
+  <si>
+    <t>GRANCD7819</t>
+  </si>
+  <si>
+    <t>DRBRCD7880</t>
+  </si>
+  <si>
+    <t>ISDECD7834</t>
+  </si>
+  <si>
+    <t>RIMACD7848</t>
+  </si>
+  <si>
+    <t>SASECD7823</t>
+  </si>
+  <si>
+    <t>CLPACD7881</t>
+  </si>
+  <si>
+    <t>BESOCD7847</t>
+  </si>
+  <si>
+    <t>SIFRCD7847</t>
+  </si>
+  <si>
+    <t>RIJECD7897</t>
+  </si>
+  <si>
+    <t>KEANCD7851</t>
+  </si>
+  <si>
+    <t>LLLACD7822</t>
+  </si>
+  <si>
+    <t>PISOCD7850</t>
+  </si>
+  <si>
+    <t>POCHCD7817</t>
+  </si>
+  <si>
+    <t>BLCLCD7825</t>
+  </si>
+  <si>
+    <t>BARJeCD57</t>
+  </si>
+  <si>
+    <t>RAISCD7874</t>
+  </si>
+  <si>
+    <t>LAELCD7855</t>
+  </si>
+  <si>
+    <t>BLEmCD7816</t>
+  </si>
+  <si>
+    <t>BUBECD7847</t>
+  </si>
+  <si>
+    <t>BOLACD7843</t>
+  </si>
+  <si>
+    <t>PANACD7871</t>
+  </si>
+  <si>
+    <t>ERVECD7891</t>
+  </si>
+  <si>
+    <t>LEISCD786</t>
+  </si>
+  <si>
+    <t>TAHACD7864</t>
+  </si>
+  <si>
+    <t>ABVACD7833</t>
+  </si>
+  <si>
+    <t>TAYOCD780</t>
+  </si>
+  <si>
+    <t>TRANCD7884</t>
+  </si>
+  <si>
+    <t>BOPHCD7868</t>
+  </si>
+  <si>
+    <t>BOPHCD7886</t>
+  </si>
+  <si>
+    <t>VIRECD780</t>
+  </si>
+  <si>
+    <t>GIMICD7883</t>
+  </si>
+  <si>
+    <t>URMACD7865</t>
+  </si>
+  <si>
+    <t>LEJOCD7858</t>
+  </si>
+  <si>
+    <t>PAANCD7890</t>
+  </si>
+  <si>
+    <t>GOCHCD7811</t>
+  </si>
+  <si>
+    <t>BRSYCD7887</t>
+  </si>
+  <si>
+    <t>HALYCD783</t>
+  </si>
+  <si>
+    <t>LADACD7875</t>
+  </si>
+  <si>
+    <t>ODJACD7846</t>
+  </si>
+  <si>
+    <t>GRISCD7853</t>
+  </si>
+  <si>
+    <t>MEINCD7847</t>
+  </si>
+  <si>
+    <t>DOLACD7831</t>
+  </si>
+  <si>
+    <t>JESYCD7891</t>
+  </si>
+  <si>
+    <t>GUNECD7840</t>
+  </si>
+  <si>
+    <t>DESACD7895</t>
+  </si>
+  <si>
+    <t>LAMACD7825</t>
+  </si>
+  <si>
+    <t>AUPACD7858</t>
+  </si>
+  <si>
+    <t>CLCACD7811</t>
+  </si>
+  <si>
+    <t>QUVECD7866</t>
+  </si>
+  <si>
+    <t>QUISCD789</t>
+  </si>
+  <si>
+    <t>BAFLCD7815</t>
+  </si>
+  <si>
+    <t>CHCHCD7882</t>
+  </si>
+  <si>
+    <t>LABRCD7826</t>
+  </si>
+  <si>
+    <t>PITICD7810</t>
+  </si>
+  <si>
+    <t>VIOLCD7830</t>
+  </si>
+  <si>
+    <t>ZAMLaCD77</t>
+  </si>
+  <si>
+    <t>MARChCD90</t>
+  </si>
+  <si>
+    <t>HOVACD7873</t>
+  </si>
+  <si>
+    <t>COFLCD7863</t>
+  </si>
+  <si>
+    <t>DUANCD7872</t>
+  </si>
+  <si>
+    <t>LECOCD7819</t>
+  </si>
+  <si>
+    <t>MATHCD7821</t>
+  </si>
+  <si>
+    <t>ARAUCD7862</t>
+  </si>
+  <si>
+    <t>BAYACD7842</t>
+  </si>
+  <si>
+    <t>BANACD7860</t>
+  </si>
+  <si>
+    <t>DEALCD7892</t>
+  </si>
+  <si>
+    <t>DUCACD7862</t>
+  </si>
+  <si>
+    <t>FAARCD7834</t>
+  </si>
+  <si>
+    <t>FACHCD7869</t>
+  </si>
+  <si>
+    <t>GRSYCD7811</t>
+  </si>
+  <si>
+    <t>HEFRCD7871</t>
+  </si>
+  <si>
+    <t>LEDOCD7818</t>
+  </si>
+  <si>
+    <t>PRCHCD7886</t>
+  </si>
+  <si>
+    <t>QUBECD7864</t>
+  </si>
+  <si>
+    <t>ABPACD7872</t>
+  </si>
+  <si>
+    <t>BAJECD7851</t>
+  </si>
+  <si>
+    <t>BEKACD7829</t>
+  </si>
+  <si>
+    <t>BENACD7813</t>
+  </si>
+  <si>
+    <t>BESOCD7849</t>
+  </si>
+  <si>
+    <t>BLSOCD787</t>
+  </si>
+  <si>
+    <t>BUBRCD7839</t>
+  </si>
+  <si>
+    <t>CHOLCD7849</t>
+  </si>
+  <si>
+    <t>DEMACD7839</t>
+  </si>
+  <si>
+    <t>DOMACD7826</t>
+  </si>
+  <si>
+    <t>DUROCD7822</t>
+  </si>
+  <si>
+    <t>EOWICD7836</t>
+  </si>
+  <si>
+    <t>GADACD7872</t>
+  </si>
+  <si>
+    <t>GAMACD7869</t>
+  </si>
+  <si>
+    <t>GACACD7846</t>
+  </si>
+  <si>
+    <t>GAUAuCD53</t>
+  </si>
+  <si>
+    <t>HUCACD7832</t>
+  </si>
+  <si>
+    <t>KUSTCD7860</t>
+  </si>
+  <si>
+    <t>LAANCD7843</t>
+  </si>
+  <si>
+    <t>LYALCD785</t>
+  </si>
+  <si>
+    <t>MESOCD7862</t>
+  </si>
+  <si>
+    <t>MOTHCD782</t>
+  </si>
+  <si>
+    <t>RIANCD786</t>
+  </si>
+  <si>
+    <t>ROHECD7856</t>
+  </si>
+  <si>
+    <t>RONICD7863</t>
+  </si>
+  <si>
+    <t>SAHECD7818</t>
+  </si>
+  <si>
+    <t>SCJECD7852</t>
+  </si>
+  <si>
+    <t>VICLCD7855</t>
+  </si>
+  <si>
+    <t>CAAUCD781</t>
+  </si>
+  <si>
+    <t>CRCACD7892</t>
+  </si>
+  <si>
+    <t>GACECD7894</t>
+  </si>
+  <si>
+    <t>LEFRCD7852</t>
+  </si>
+  <si>
+    <t>LULMaCD93</t>
+  </si>
+  <si>
+    <t>OVLYCD786</t>
+  </si>
+  <si>
+    <t>BO84579</t>
+  </si>
+  <si>
+    <t>PS81510</t>
+  </si>
+  <si>
+    <t>GJ11889</t>
+  </si>
+  <si>
+    <t>PS77286</t>
+  </si>
+  <si>
+    <t>EG58876</t>
+  </si>
+  <si>
+    <t>BH33146</t>
+  </si>
+  <si>
+    <t>VS35525</t>
+  </si>
+  <si>
+    <t>CJ99245</t>
+  </si>
+  <si>
+    <t>VM83456</t>
+  </si>
+  <si>
+    <t>TJ52827</t>
+  </si>
+  <si>
+    <t>VP90116</t>
+  </si>
+  <si>
+    <t>GL60178</t>
+  </si>
+  <si>
+    <t>MF62220</t>
+  </si>
+  <si>
+    <t>GO69842</t>
+  </si>
+  <si>
+    <t>LJ8366</t>
+  </si>
+  <si>
+    <t>GJ93068</t>
+  </si>
+  <si>
+    <t>DM8561</t>
+  </si>
+  <si>
+    <t>BJ83250</t>
+  </si>
+  <si>
+    <t>PL49916</t>
+  </si>
+  <si>
+    <t>QT44221</t>
+  </si>
+  <si>
+    <t>LC81813</t>
+  </si>
+  <si>
+    <t>QS33189</t>
+  </si>
+  <si>
+    <t>LM23949</t>
+  </si>
+  <si>
+    <t>RA26739</t>
+  </si>
+  <si>
+    <t>SR36144</t>
+  </si>
+  <si>
+    <t>DL70259</t>
+  </si>
+  <si>
+    <t>SF2123</t>
+  </si>
+  <si>
+    <t>BG49735</t>
+  </si>
+  <si>
+    <t>CC31848</t>
+  </si>
+  <si>
+    <t>BR84331</t>
+  </si>
+  <si>
+    <t>AM13081</t>
+  </si>
+  <si>
+    <t>FB22796</t>
+  </si>
+  <si>
+    <t>PN94958</t>
+  </si>
+  <si>
+    <t>MF34045</t>
+  </si>
+  <si>
+    <t>GM29765</t>
+  </si>
+  <si>
+    <t>GC91208</t>
+  </si>
+  <si>
+    <t>LE28328</t>
+  </si>
+  <si>
+    <t>LM22740</t>
+  </si>
+  <si>
+    <t>MV17622</t>
+  </si>
+  <si>
+    <t>BS6141</t>
+  </si>
+  <si>
+    <t>LB10341</t>
+  </si>
+  <si>
+    <t>CF39324</t>
+  </si>
+  <si>
+    <t>FL87904</t>
+  </si>
+  <si>
+    <t>VJ23996</t>
+  </si>
+  <si>
+    <t>AP97969</t>
+  </si>
+  <si>
+    <t>PB75957</t>
+  </si>
+  <si>
+    <t>RJ1625</t>
+  </si>
+  <si>
+    <t>TA76893</t>
+  </si>
+  <si>
+    <t>BI82931</t>
+  </si>
+  <si>
+    <t>DR89283</t>
+  </si>
+  <si>
+    <t>DN64189</t>
+  </si>
+  <si>
+    <t>DDCD318</t>
+  </si>
+  <si>
+    <t>CR34134</t>
+  </si>
+  <si>
+    <t>PF6110</t>
+  </si>
+  <si>
+    <t>FO88859</t>
+  </si>
+  <si>
+    <t>EF11655</t>
+  </si>
+  <si>
+    <t>LM80233</t>
+  </si>
+  <si>
+    <t>RR69414</t>
+  </si>
+  <si>
+    <t>BB62112</t>
+  </si>
+  <si>
+    <t>SL1041</t>
+  </si>
+  <si>
+    <t>DF91319</t>
+  </si>
+  <si>
+    <t>DA44990</t>
+  </si>
+  <si>
+    <t>RC78320</t>
+  </si>
+  <si>
+    <t>DM62679</t>
+  </si>
+  <si>
+    <t>AC68313</t>
+  </si>
+  <si>
+    <t>CS59554</t>
+  </si>
+  <si>
+    <t>BC39193</t>
+  </si>
+  <si>
+    <t>AP81959</t>
+  </si>
+  <si>
+    <t>LC69196</t>
+  </si>
+  <si>
+    <t>LM43764</t>
+  </si>
+  <si>
+    <t>BS39273</t>
+  </si>
+  <si>
+    <t>GC75913</t>
+  </si>
+  <si>
+    <t>DP27823</t>
+  </si>
+  <si>
+    <t>LA60518</t>
+  </si>
+  <si>
+    <t>SJ62860</t>
+  </si>
+  <si>
+    <t>LL72478</t>
+  </si>
+  <si>
+    <t>TM71024</t>
+  </si>
+  <si>
+    <t>BA33123</t>
+  </si>
+  <si>
+    <t>BN27977</t>
+  </si>
+  <si>
+    <t>SC31290</t>
+  </si>
+  <si>
+    <t>TF97287</t>
+  </si>
+  <si>
+    <t>RH56183</t>
+  </si>
+  <si>
+    <t>CB12392</t>
+  </si>
+  <si>
+    <t>SM2439</t>
+  </si>
+  <si>
+    <t>BE97880</t>
+  </si>
+  <si>
+    <t>AC56296</t>
+  </si>
+  <si>
+    <t>CI89894</t>
+  </si>
+  <si>
+    <t>CR72955</t>
+  </si>
+  <si>
+    <t>MN31532</t>
+  </si>
+  <si>
+    <t>PC40713</t>
+  </si>
+  <si>
+    <t>PJ27108</t>
+  </si>
+  <si>
+    <t>TA86548</t>
+  </si>
+  <si>
+    <t>TI56295</t>
+  </si>
+  <si>
+    <t>EA13532</t>
+  </si>
+  <si>
+    <t>BE8605</t>
+  </si>
+  <si>
+    <t>TS92237</t>
+  </si>
+  <si>
+    <t>DC67271</t>
+  </si>
+  <si>
+    <t>GL8597</t>
+  </si>
+  <si>
+    <t>MG97146</t>
+  </si>
+  <si>
+    <t>MS10801</t>
+  </si>
+  <si>
+    <t>PC53855</t>
+  </si>
+  <si>
+    <t>SD28397</t>
+  </si>
+  <si>
+    <t>GA75384</t>
+  </si>
+  <si>
+    <t>DB64882</t>
+  </si>
+  <si>
+    <t>ID52504</t>
+  </si>
+  <si>
+    <t>RM15557</t>
+  </si>
+  <si>
+    <t>SS18433</t>
+  </si>
+  <si>
+    <t>CP73581</t>
+  </si>
+  <si>
+    <t>BS2527</t>
+  </si>
+  <si>
+    <t>SF79986</t>
+  </si>
+  <si>
+    <t>RJ25622</t>
+  </si>
+  <si>
+    <t>KA34258</t>
+  </si>
+  <si>
+    <t>LL31658</t>
+  </si>
+  <si>
+    <t>PS4518</t>
+  </si>
+  <si>
+    <t>PC66092</t>
+  </si>
+  <si>
+    <t>BC58485</t>
+  </si>
+  <si>
+    <t>JBCD563</t>
+  </si>
+  <si>
+    <t>RI3072</t>
+  </si>
+  <si>
+    <t>LE7546</t>
+  </si>
+  <si>
+    <t>BE46213</t>
+  </si>
+  <si>
+    <t>BB98932</t>
+  </si>
+  <si>
+    <t>BL3910</t>
+  </si>
+  <si>
+    <t>PN61240</t>
+  </si>
+  <si>
+    <t>EV14397</t>
+  </si>
+  <si>
+    <t>LI30944</t>
+  </si>
+  <si>
+    <t>TH36147</t>
+  </si>
+  <si>
+    <t>AV57294</t>
+  </si>
+  <si>
+    <t>TY13879</t>
+  </si>
+  <si>
+    <t>TA63815</t>
+  </si>
+  <si>
+    <t>BP59219</t>
+  </si>
+  <si>
+    <t>BP46142</t>
+  </si>
+  <si>
+    <t>VR28254</t>
+  </si>
+  <si>
+    <t>GM99162</t>
+  </si>
+  <si>
+    <t>UM71185</t>
+  </si>
+  <si>
+    <t>LJ42465</t>
+  </si>
+  <si>
+    <t>PA52792</t>
+  </si>
+  <si>
+    <t>GC46553</t>
+  </si>
+  <si>
+    <t>BS64193</t>
+  </si>
+  <si>
+    <t>HL56070</t>
+  </si>
+  <si>
+    <t>LD72908</t>
+  </si>
+  <si>
+    <t>OJ20925</t>
+  </si>
+  <si>
+    <t>GI75335</t>
+  </si>
+  <si>
+    <t>MI2853</t>
+  </si>
+  <si>
+    <t>DL4696</t>
+  </si>
+  <si>
+    <t>JS45738</t>
+  </si>
+  <si>
+    <t>GN21844</t>
+  </si>
+  <si>
+    <t>DS27718</t>
+  </si>
+  <si>
+    <t>LM12709</t>
+  </si>
+  <si>
+    <t>AP52419</t>
+  </si>
+  <si>
+    <t>CC15966</t>
+  </si>
+  <si>
+    <t>QV48104</t>
+  </si>
+  <si>
+    <t>QI40249</t>
+  </si>
+  <si>
+    <t>BF36733</t>
+  </si>
+  <si>
+    <t>CC56612</t>
+  </si>
+  <si>
+    <t>LB99390</t>
+  </si>
+  <si>
+    <t>PT159</t>
+  </si>
+  <si>
+    <t>VO8278</t>
+  </si>
+  <si>
+    <t>LZCD558</t>
+  </si>
+  <si>
+    <t>CMCD405</t>
+  </si>
+  <si>
+    <t>HV29474</t>
+  </si>
+  <si>
+    <t>CF19056</t>
+  </si>
+  <si>
+    <t>DA14826</t>
+  </si>
+  <si>
+    <t>LC83162</t>
+  </si>
+  <si>
+    <t>MT6321</t>
+  </si>
+  <si>
+    <t>AA12634</t>
+  </si>
+  <si>
+    <t>BY29560</t>
+  </si>
+  <si>
+    <t>BN65084</t>
+  </si>
+  <si>
+    <t>DA98911</t>
+  </si>
+  <si>
+    <t>DC94183</t>
+  </si>
+  <si>
+    <t>FA45934</t>
+  </si>
+  <si>
+    <t>FC79816</t>
+  </si>
+  <si>
+    <t>GS49448</t>
+  </si>
+  <si>
+    <t>HF4466</t>
+  </si>
+  <si>
+    <t>LD48248</t>
+  </si>
+  <si>
+    <t>PC51395</t>
+  </si>
+  <si>
+    <t>QB28215</t>
+  </si>
+  <si>
+    <t>AP58113</t>
+  </si>
+  <si>
+    <t>BJ89678</t>
+  </si>
+  <si>
+    <t>BK34604</t>
+  </si>
+  <si>
+    <t>BN45810</t>
+  </si>
+  <si>
+    <t>BS90656</t>
+  </si>
+  <si>
+    <t>BS42713</t>
+  </si>
+  <si>
+    <t>BB9966</t>
+  </si>
+  <si>
+    <t>CO91690</t>
+  </si>
+  <si>
+    <t>DM51485</t>
+  </si>
+  <si>
+    <t>DM57039</t>
+  </si>
+  <si>
+    <t>DR54641</t>
+  </si>
+  <si>
+    <t>EW9809</t>
+  </si>
+  <si>
+    <t>GD16529</t>
+  </si>
+  <si>
+    <t>GM44253</t>
+  </si>
+  <si>
+    <t>GC72162</t>
+  </si>
+  <si>
+    <t>AGCD254</t>
+  </si>
+  <si>
+    <t>HC40996</t>
+  </si>
+  <si>
+    <t>KS95149</t>
+  </si>
+  <si>
+    <t>LA76952</t>
+  </si>
+  <si>
+    <t>LA28309</t>
+  </si>
+  <si>
+    <t>MS1387</t>
+  </si>
+  <si>
+    <t>MT28015</t>
+  </si>
+  <si>
+    <t>RA48982</t>
+  </si>
+  <si>
+    <t>RH91211</t>
+  </si>
+  <si>
+    <t>RN22262</t>
+  </si>
+  <si>
+    <t>SH12815</t>
+  </si>
+  <si>
+    <t>SJ33792</t>
+  </si>
+  <si>
+    <t>VC74200</t>
+  </si>
+  <si>
+    <t>CA3425</t>
+  </si>
+  <si>
+    <t>CC14355</t>
+  </si>
+  <si>
+    <t>GC20444</t>
+  </si>
+  <si>
+    <t>LF43486</t>
+  </si>
+  <si>
+    <t>MLCD382</t>
+  </si>
+  <si>
+    <t>OL83347</t>
   </si>
 </sst>
 </file>
@@ -78,12 +3003,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,19 +3035,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,10 +3324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,47 +3351,3576 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>229</v>
+      </c>
+      <c r="C2" t="s">
+        <v>358</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>568</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D5" t="s">
+        <v>571</v>
+      </c>
+      <c r="E5" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6" t="s">
+        <v>572</v>
+      </c>
+      <c r="E6" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" t="s">
+        <v>573</v>
+      </c>
+      <c r="E7" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" t="s">
+        <v>574</v>
+      </c>
+      <c r="E8" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" t="s">
+        <v>575</v>
+      </c>
+      <c r="E9" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" t="s">
+        <v>576</v>
+      </c>
+      <c r="E10" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D11" t="s">
+        <v>577</v>
+      </c>
+      <c r="E11" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D12" t="s">
+        <v>578</v>
+      </c>
+      <c r="E12" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>369</v>
+      </c>
+      <c r="D13" t="s">
+        <v>579</v>
+      </c>
+      <c r="E13" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" t="s">
+        <v>580</v>
+      </c>
+      <c r="E14" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" t="s">
+        <v>371</v>
+      </c>
+      <c r="D15" t="s">
+        <v>581</v>
+      </c>
+      <c r="E15" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>372</v>
+      </c>
+      <c r="D16" t="s">
+        <v>582</v>
+      </c>
+      <c r="E16" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" t="s">
+        <v>373</v>
+      </c>
+      <c r="D17" t="s">
+        <v>583</v>
+      </c>
+      <c r="E17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" t="s">
+        <v>374</v>
+      </c>
+      <c r="D18" t="s">
+        <v>584</v>
+      </c>
+      <c r="E18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D19" t="s">
+        <v>585</v>
+      </c>
+      <c r="E19" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>376</v>
+      </c>
+      <c r="D20" t="s">
+        <v>586</v>
+      </c>
+      <c r="E20" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>377</v>
+      </c>
+      <c r="D21" t="s">
+        <v>587</v>
+      </c>
+      <c r="E21" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" t="s">
+        <v>378</v>
+      </c>
+      <c r="D22" t="s">
+        <v>588</v>
+      </c>
+      <c r="E22" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" t="s">
+        <v>379</v>
+      </c>
+      <c r="D23" t="s">
+        <v>589</v>
+      </c>
+      <c r="E23" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" t="s">
+        <v>380</v>
+      </c>
+      <c r="D24" t="s">
+        <v>590</v>
+      </c>
+      <c r="E24" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" t="s">
+        <v>381</v>
+      </c>
+      <c r="D25" t="s">
+        <v>591</v>
+      </c>
+      <c r="E25" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" t="s">
+        <v>382</v>
+      </c>
+      <c r="D26" t="s">
+        <v>592</v>
+      </c>
+      <c r="E26" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>383</v>
+      </c>
+      <c r="D27" t="s">
+        <v>593</v>
+      </c>
+      <c r="E27" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" t="s">
+        <v>384</v>
+      </c>
+      <c r="D28" t="s">
+        <v>594</v>
+      </c>
+      <c r="E28" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>385</v>
+      </c>
+      <c r="D29" t="s">
+        <v>595</v>
+      </c>
+      <c r="E29" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>386</v>
+      </c>
+      <c r="D30" t="s">
+        <v>596</v>
+      </c>
+      <c r="E30" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C31" t="s">
+        <v>387</v>
+      </c>
+      <c r="D31" t="s">
+        <v>597</v>
+      </c>
+      <c r="E31" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" t="s">
+        <v>388</v>
+      </c>
+      <c r="D32" t="s">
+        <v>598</v>
+      </c>
+      <c r="E32" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" t="s">
+        <v>389</v>
+      </c>
+      <c r="D33" t="s">
+        <v>599</v>
+      </c>
+      <c r="E33" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>390</v>
+      </c>
+      <c r="D34" t="s">
+        <v>600</v>
+      </c>
+      <c r="E34" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" t="s">
+        <v>391</v>
+      </c>
+      <c r="D35" t="s">
+        <v>601</v>
+      </c>
+      <c r="E35" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C36" t="s">
+        <v>392</v>
+      </c>
+      <c r="D36" t="s">
+        <v>602</v>
+      </c>
+      <c r="E36" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>250</v>
+      </c>
+      <c r="C37" t="s">
+        <v>393</v>
+      </c>
+      <c r="D37" t="s">
+        <v>603</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" t="s">
+        <v>394</v>
+      </c>
+      <c r="D38" t="s">
+        <v>604</v>
+      </c>
+      <c r="E38" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>395</v>
+      </c>
+      <c r="D39" t="s">
+        <v>605</v>
+      </c>
+      <c r="E39" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" t="s">
+        <v>396</v>
+      </c>
+      <c r="D40" t="s">
+        <v>606</v>
+      </c>
+      <c r="E40" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" t="s">
+        <v>397</v>
+      </c>
+      <c r="D41" t="s">
+        <v>607</v>
+      </c>
+      <c r="E41" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>254</v>
+      </c>
+      <c r="C42" t="s">
+        <v>398</v>
+      </c>
+      <c r="D42" t="s">
+        <v>608</v>
+      </c>
+      <c r="E42" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D43" t="s">
+        <v>609</v>
+      </c>
+      <c r="E43" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44" t="s">
+        <v>400</v>
+      </c>
+      <c r="D44" t="s">
+        <v>610</v>
+      </c>
+      <c r="E44" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C45" t="s">
+        <v>401</v>
+      </c>
+      <c r="D45" t="s">
+        <v>611</v>
+      </c>
+      <c r="E45" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" t="s">
+        <v>402</v>
+      </c>
+      <c r="D46" t="s">
+        <v>612</v>
+      </c>
+      <c r="E46" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" t="s">
+        <v>403</v>
+      </c>
+      <c r="D47" t="s">
+        <v>613</v>
+      </c>
+      <c r="E47" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>259</v>
+      </c>
+      <c r="C48" t="s">
+        <v>404</v>
+      </c>
+      <c r="D48" t="s">
+        <v>614</v>
+      </c>
+      <c r="E48" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>405</v>
+      </c>
+      <c r="D49" t="s">
+        <v>615</v>
+      </c>
+      <c r="E49" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" t="s">
+        <v>406</v>
+      </c>
+      <c r="D50" t="s">
+        <v>616</v>
+      </c>
+      <c r="E50" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>261</v>
+      </c>
+      <c r="C51" t="s">
+        <v>407</v>
+      </c>
+      <c r="D51" t="s">
+        <v>617</v>
+      </c>
+      <c r="E51" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" t="s">
+        <v>408</v>
+      </c>
+      <c r="D52" t="s">
+        <v>618</v>
+      </c>
+      <c r="E52" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>263</v>
+      </c>
+      <c r="C53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D53" t="s">
+        <v>619</v>
+      </c>
+      <c r="E53" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>264</v>
+      </c>
+      <c r="C54" t="s">
+        <v>410</v>
+      </c>
+      <c r="D54" t="s">
+        <v>620</v>
+      </c>
+      <c r="E54" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55" t="s">
+        <v>411</v>
+      </c>
+      <c r="D55" t="s">
+        <v>621</v>
+      </c>
+      <c r="E55" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" t="s">
+        <v>412</v>
+      </c>
+      <c r="D56" t="s">
+        <v>622</v>
+      </c>
+      <c r="E56" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" t="s">
+        <v>266</v>
+      </c>
+      <c r="C57" t="s">
+        <v>413</v>
+      </c>
+      <c r="D57" t="s">
+        <v>623</v>
+      </c>
+      <c r="E57" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" t="s">
+        <v>414</v>
+      </c>
+      <c r="D58" t="s">
+        <v>624</v>
+      </c>
+      <c r="E58" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
+        <v>267</v>
+      </c>
+      <c r="C59" t="s">
+        <v>415</v>
+      </c>
+      <c r="D59" t="s">
+        <v>625</v>
+      </c>
+      <c r="E59" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" t="s">
+        <v>268</v>
+      </c>
+      <c r="C60" t="s">
+        <v>416</v>
+      </c>
+      <c r="D60" t="s">
+        <v>626</v>
+      </c>
+      <c r="E60" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" t="s">
+        <v>417</v>
+      </c>
+      <c r="D61" t="s">
+        <v>627</v>
+      </c>
+      <c r="E61" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" t="s">
+        <v>270</v>
+      </c>
+      <c r="C62" t="s">
+        <v>418</v>
+      </c>
+      <c r="D62" t="s">
+        <v>628</v>
+      </c>
+      <c r="E62" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" t="s">
+        <v>271</v>
+      </c>
+      <c r="C63" t="s">
+        <v>419</v>
+      </c>
+      <c r="D63" t="s">
+        <v>629</v>
+      </c>
+      <c r="E63" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>272</v>
+      </c>
+      <c r="C64" t="s">
+        <v>420</v>
+      </c>
+      <c r="D64" t="s">
+        <v>630</v>
+      </c>
+      <c r="E64" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" t="s">
+        <v>273</v>
+      </c>
+      <c r="C65" t="s">
+        <v>421</v>
+      </c>
+      <c r="D65" t="s">
+        <v>631</v>
+      </c>
+      <c r="E65" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C66" t="s">
+        <v>422</v>
+      </c>
+      <c r="D66" t="s">
+        <v>632</v>
+      </c>
+      <c r="E66" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" t="s">
+        <v>423</v>
+      </c>
+      <c r="D67" t="s">
+        <v>633</v>
+      </c>
+      <c r="E67" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>424</v>
+      </c>
+      <c r="D68" t="s">
+        <v>634</v>
+      </c>
+      <c r="E68" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" t="s">
+        <v>275</v>
+      </c>
+      <c r="C69" t="s">
+        <v>425</v>
+      </c>
+      <c r="D69" t="s">
+        <v>635</v>
+      </c>
+      <c r="E69" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" t="s">
+        <v>426</v>
+      </c>
+      <c r="D70" t="s">
+        <v>636</v>
+      </c>
+      <c r="E70" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" t="s">
+        <v>277</v>
+      </c>
+      <c r="C71" t="s">
+        <v>427</v>
+      </c>
+      <c r="D71" t="s">
+        <v>637</v>
+      </c>
+      <c r="E71" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" t="s">
+        <v>428</v>
+      </c>
+      <c r="D72" t="s">
+        <v>638</v>
+      </c>
+      <c r="E72" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" t="s">
+        <v>279</v>
+      </c>
+      <c r="C73" t="s">
+        <v>429</v>
+      </c>
+      <c r="D73" t="s">
+        <v>639</v>
+      </c>
+      <c r="E73" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" t="s">
+        <v>280</v>
+      </c>
+      <c r="C74" t="s">
+        <v>430</v>
+      </c>
+      <c r="D74" t="s">
+        <v>640</v>
+      </c>
+      <c r="E74" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" t="s">
+        <v>281</v>
+      </c>
+      <c r="C75" t="s">
+        <v>431</v>
+      </c>
+      <c r="D75" t="s">
+        <v>641</v>
+      </c>
+      <c r="E75" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" t="s">
+        <v>432</v>
+      </c>
+      <c r="D76" t="s">
+        <v>642</v>
+      </c>
+      <c r="E76" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>433</v>
+      </c>
+      <c r="D77" t="s">
+        <v>643</v>
+      </c>
+      <c r="E77" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" t="s">
+        <v>277</v>
+      </c>
+      <c r="C78" t="s">
+        <v>434</v>
+      </c>
+      <c r="D78" t="s">
+        <v>644</v>
+      </c>
+      <c r="E78" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" t="s">
+        <v>283</v>
+      </c>
+      <c r="C79" t="s">
+        <v>435</v>
+      </c>
+      <c r="D79" t="s">
+        <v>645</v>
+      </c>
+      <c r="E79" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>436</v>
+      </c>
+      <c r="D80" t="s">
+        <v>646</v>
+      </c>
+      <c r="E80" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" t="s">
+        <v>437</v>
+      </c>
+      <c r="D81" t="s">
+        <v>647</v>
+      </c>
+      <c r="E81" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" t="s">
+        <v>284</v>
+      </c>
+      <c r="C82" t="s">
+        <v>438</v>
+      </c>
+      <c r="D82" t="s">
+        <v>648</v>
+      </c>
+      <c r="E82" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" t="s">
+        <v>285</v>
+      </c>
+      <c r="C83" t="s">
+        <v>439</v>
+      </c>
+      <c r="D83" t="s">
+        <v>649</v>
+      </c>
+      <c r="E83" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" t="s">
+        <v>286</v>
+      </c>
+      <c r="C84" t="s">
+        <v>440</v>
+      </c>
+      <c r="D84" t="s">
+        <v>650</v>
+      </c>
+      <c r="E84" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" t="s">
+        <v>273</v>
+      </c>
+      <c r="C85" t="s">
+        <v>441</v>
+      </c>
+      <c r="D85" t="s">
+        <v>651</v>
+      </c>
+      <c r="E85" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" t="s">
+        <v>287</v>
+      </c>
+      <c r="C86" t="s">
+        <v>442</v>
+      </c>
+      <c r="D86" t="s">
+        <v>652</v>
+      </c>
+      <c r="E86" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>443</v>
+      </c>
+      <c r="D87" t="s">
+        <v>653</v>
+      </c>
+      <c r="E87" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" t="s">
+        <v>288</v>
+      </c>
+      <c r="C88" t="s">
+        <v>444</v>
+      </c>
+      <c r="D88" t="s">
+        <v>654</v>
+      </c>
+      <c r="E88" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" t="s">
+        <v>445</v>
+      </c>
+      <c r="D89" t="s">
+        <v>655</v>
+      </c>
+      <c r="E89" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>446</v>
+      </c>
+      <c r="D90" t="s">
+        <v>656</v>
+      </c>
+      <c r="E90" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" t="s">
+        <v>447</v>
+      </c>
+      <c r="D91" t="s">
+        <v>657</v>
+      </c>
+      <c r="E91" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" t="s">
+        <v>290</v>
+      </c>
+      <c r="C92" t="s">
+        <v>448</v>
+      </c>
+      <c r="D92" t="s">
+        <v>658</v>
+      </c>
+      <c r="E92" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" t="s">
+        <v>281</v>
+      </c>
+      <c r="C93" t="s">
+        <v>449</v>
+      </c>
+      <c r="D93" t="s">
+        <v>659</v>
+      </c>
+      <c r="E93" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" t="s">
+        <v>288</v>
+      </c>
+      <c r="C94" t="s">
+        <v>450</v>
+      </c>
+      <c r="D94" t="s">
+        <v>660</v>
+      </c>
+      <c r="E94" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" t="s">
+        <v>244</v>
+      </c>
+      <c r="C95" t="s">
+        <v>451</v>
+      </c>
+      <c r="D95" t="s">
+        <v>661</v>
+      </c>
+      <c r="E95" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96" t="s">
+        <v>291</v>
+      </c>
+      <c r="C96" t="s">
+        <v>452</v>
+      </c>
+      <c r="D96" t="s">
+        <v>662</v>
+      </c>
+      <c r="E96" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" t="s">
+        <v>292</v>
+      </c>
+      <c r="C97" t="s">
+        <v>453</v>
+      </c>
+      <c r="D97" t="s">
+        <v>663</v>
+      </c>
+      <c r="E97" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" t="s">
+        <v>293</v>
+      </c>
+      <c r="C98" t="s">
+        <v>454</v>
+      </c>
+      <c r="D98" t="s">
+        <v>664</v>
+      </c>
+      <c r="E98" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>455</v>
+      </c>
+      <c r="D99" t="s">
+        <v>665</v>
+      </c>
+      <c r="E99" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100" t="s">
+        <v>294</v>
+      </c>
+      <c r="C100" t="s">
+        <v>456</v>
+      </c>
+      <c r="D100" t="s">
+        <v>666</v>
+      </c>
+      <c r="E100" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" t="s">
+        <v>295</v>
+      </c>
+      <c r="C101" t="s">
+        <v>457</v>
+      </c>
+      <c r="D101" t="s">
+        <v>667</v>
+      </c>
+      <c r="E101" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" t="s">
+        <v>458</v>
+      </c>
+      <c r="D102" t="s">
+        <v>668</v>
+      </c>
+      <c r="E102" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" t="s">
+        <v>297</v>
+      </c>
+      <c r="C103" t="s">
+        <v>459</v>
+      </c>
+      <c r="D103" t="s">
+        <v>669</v>
+      </c>
+      <c r="E103" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" t="s">
+        <v>298</v>
+      </c>
+      <c r="C104" t="s">
+        <v>460</v>
+      </c>
+      <c r="D104" t="s">
+        <v>670</v>
+      </c>
+      <c r="E104" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>124</v>
+      </c>
+      <c r="B105" t="s">
+        <v>268</v>
+      </c>
+      <c r="C105" t="s">
+        <v>461</v>
+      </c>
+      <c r="D105" t="s">
+        <v>671</v>
+      </c>
+      <c r="E105" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106" t="s">
+        <v>299</v>
+      </c>
+      <c r="C106" t="s">
+        <v>462</v>
+      </c>
+      <c r="D106" t="s">
+        <v>672</v>
+      </c>
+      <c r="E106" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>126</v>
+      </c>
+      <c r="B107" t="s">
+        <v>300</v>
+      </c>
+      <c r="C107" t="s">
+        <v>463</v>
+      </c>
+      <c r="D107" t="s">
+        <v>673</v>
+      </c>
+      <c r="E107" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108" t="s">
+        <v>301</v>
+      </c>
+      <c r="C108" t="s">
+        <v>464</v>
+      </c>
+      <c r="D108" t="s">
+        <v>674</v>
+      </c>
+      <c r="E108" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" t="s">
+        <v>275</v>
+      </c>
+      <c r="C109" t="s">
+        <v>465</v>
+      </c>
+      <c r="D109" t="s">
+        <v>675</v>
+      </c>
+      <c r="E109" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C110" t="s">
+        <v>466</v>
+      </c>
+      <c r="D110" t="s">
+        <v>676</v>
+      </c>
+      <c r="E110" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>130</v>
+      </c>
+      <c r="B111" t="s">
+        <v>302</v>
+      </c>
+      <c r="C111" t="s">
+        <v>467</v>
+      </c>
+      <c r="D111" t="s">
+        <v>677</v>
+      </c>
+      <c r="E111" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112" t="s">
+        <v>303</v>
+      </c>
+      <c r="C112" t="s">
+        <v>468</v>
+      </c>
+      <c r="D112" t="s">
+        <v>678</v>
+      </c>
+      <c r="E112" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113" t="s">
+        <v>304</v>
+      </c>
+      <c r="C113" t="s">
+        <v>469</v>
+      </c>
+      <c r="D113" t="s">
+        <v>679</v>
+      </c>
+      <c r="E113" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>133</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>470</v>
+      </c>
+      <c r="D114" t="s">
+        <v>680</v>
+      </c>
+      <c r="E114" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" t="s">
+        <v>471</v>
+      </c>
+      <c r="D115" t="s">
+        <v>681</v>
+      </c>
+      <c r="E115" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>135</v>
+      </c>
+      <c r="B116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" t="s">
+        <v>472</v>
+      </c>
+      <c r="D116" t="s">
+        <v>682</v>
+      </c>
+      <c r="E116" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" t="s">
+        <v>305</v>
+      </c>
+      <c r="C117" t="s">
+        <v>473</v>
+      </c>
+      <c r="D117" t="s">
+        <v>683</v>
+      </c>
+      <c r="E117" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>137</v>
+      </c>
+      <c r="B118" t="s">
+        <v>306</v>
+      </c>
+      <c r="C118" t="s">
+        <v>474</v>
+      </c>
+      <c r="D118" t="s">
+        <v>684</v>
+      </c>
+      <c r="E118" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>138</v>
+      </c>
+      <c r="B119" t="s">
+        <v>288</v>
+      </c>
+      <c r="C119" t="s">
+        <v>475</v>
+      </c>
+      <c r="D119" t="s">
+        <v>685</v>
+      </c>
+      <c r="E119" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120" t="s">
+        <v>291</v>
+      </c>
+      <c r="C120" t="s">
+        <v>476</v>
+      </c>
+      <c r="D120" t="s">
+        <v>686</v>
+      </c>
+      <c r="E120" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>140</v>
+      </c>
+      <c r="B121" t="s">
+        <v>307</v>
+      </c>
+      <c r="C121" t="s">
+        <v>477</v>
+      </c>
+      <c r="D121" t="s">
+        <v>687</v>
+      </c>
+      <c r="E121" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>141</v>
+      </c>
+      <c r="B122" t="s">
+        <v>308</v>
+      </c>
+      <c r="C122" t="s">
+        <v>478</v>
+      </c>
+      <c r="D122" t="s">
+        <v>688</v>
+      </c>
+      <c r="E122" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>142</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>479</v>
+      </c>
+      <c r="D123" t="s">
+        <v>689</v>
+      </c>
+      <c r="E123" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>143</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>480</v>
+      </c>
+      <c r="D124" t="s">
+        <v>690</v>
+      </c>
+      <c r="E124" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>144</v>
+      </c>
+      <c r="B125" t="s">
+        <v>309</v>
+      </c>
+      <c r="C125" t="s">
+        <v>481</v>
+      </c>
+      <c r="D125" t="s">
+        <v>691</v>
+      </c>
+      <c r="E125" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126" t="s">
+        <v>310</v>
+      </c>
+      <c r="C126" t="s">
+        <v>482</v>
+      </c>
+      <c r="D126" t="s">
+        <v>692</v>
+      </c>
+      <c r="E126" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>146</v>
+      </c>
+      <c r="B127" t="s">
+        <v>311</v>
+      </c>
+      <c r="C127" t="s">
+        <v>483</v>
+      </c>
+      <c r="D127" t="s">
+        <v>693</v>
+      </c>
+      <c r="E127" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>147</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>484</v>
+      </c>
+      <c r="D128" t="s">
+        <v>694</v>
+      </c>
+      <c r="E128" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>148</v>
+      </c>
+      <c r="B129" t="s">
+        <v>312</v>
+      </c>
+      <c r="C129" t="s">
+        <v>485</v>
+      </c>
+      <c r="D129" t="s">
+        <v>695</v>
+      </c>
+      <c r="E129" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" t="s">
+        <v>313</v>
+      </c>
+      <c r="C130" t="s">
+        <v>486</v>
+      </c>
+      <c r="D130" t="s">
+        <v>696</v>
+      </c>
+      <c r="E130" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>150</v>
+      </c>
+      <c r="B131" t="s">
+        <v>314</v>
+      </c>
+      <c r="C131" t="s">
+        <v>487</v>
+      </c>
+      <c r="D131" t="s">
+        <v>697</v>
+      </c>
+      <c r="E131" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>151</v>
+      </c>
+      <c r="B132" t="s">
+        <v>314</v>
+      </c>
+      <c r="C132" t="s">
+        <v>488</v>
+      </c>
+      <c r="D132" t="s">
+        <v>698</v>
+      </c>
+      <c r="E132" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>152</v>
+      </c>
+      <c r="B133" t="s">
+        <v>315</v>
+      </c>
+      <c r="C133" t="s">
+        <v>489</v>
+      </c>
+      <c r="D133" t="s">
+        <v>699</v>
+      </c>
+      <c r="E133" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>153</v>
+      </c>
+      <c r="B134" t="s">
+        <v>316</v>
+      </c>
+      <c r="C134" t="s">
+        <v>490</v>
+      </c>
+      <c r="D134" t="s">
+        <v>700</v>
+      </c>
+      <c r="E134" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" t="s">
+        <v>317</v>
+      </c>
+      <c r="C135" t="s">
+        <v>491</v>
+      </c>
+      <c r="D135" t="s">
+        <v>701</v>
+      </c>
+      <c r="E135" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>155</v>
+      </c>
+      <c r="B136" t="s">
+        <v>318</v>
+      </c>
+      <c r="C136" t="s">
+        <v>492</v>
+      </c>
+      <c r="D136" t="s">
+        <v>702</v>
+      </c>
+      <c r="E136" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>156</v>
+      </c>
+      <c r="B137" t="s">
+        <v>319</v>
+      </c>
+      <c r="C137" t="s">
+        <v>493</v>
+      </c>
+      <c r="D137" t="s">
+        <v>703</v>
+      </c>
+      <c r="E137" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>157</v>
+      </c>
+      <c r="B138" t="s">
+        <v>276</v>
+      </c>
+      <c r="C138" t="s">
+        <v>494</v>
+      </c>
+      <c r="D138" t="s">
+        <v>704</v>
+      </c>
+      <c r="E138" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" t="s">
+        <v>320</v>
+      </c>
+      <c r="C139" t="s">
+        <v>495</v>
+      </c>
+      <c r="D139" t="s">
+        <v>705</v>
+      </c>
+      <c r="E139" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>159</v>
+      </c>
+      <c r="B140" t="s">
+        <v>321</v>
+      </c>
+      <c r="C140" t="s">
+        <v>496</v>
+      </c>
+      <c r="D140" t="s">
+        <v>706</v>
+      </c>
+      <c r="E140" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>160</v>
+      </c>
+      <c r="B141" t="s">
+        <v>322</v>
+      </c>
+      <c r="C141" t="s">
+        <v>497</v>
+      </c>
+      <c r="D141" t="s">
+        <v>707</v>
+      </c>
+      <c r="E141" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>161</v>
+      </c>
+      <c r="B142" t="s">
+        <v>323</v>
+      </c>
+      <c r="C142" t="s">
+        <v>498</v>
+      </c>
+      <c r="D142" t="s">
+        <v>708</v>
+      </c>
+      <c r="E142" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>162</v>
+      </c>
+      <c r="B143" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143" t="s">
+        <v>499</v>
+      </c>
+      <c r="D143" t="s">
+        <v>709</v>
+      </c>
+      <c r="E143" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>163</v>
+      </c>
+      <c r="B144" t="s">
+        <v>324</v>
+      </c>
+      <c r="C144" t="s">
+        <v>500</v>
+      </c>
+      <c r="D144" t="s">
+        <v>710</v>
+      </c>
+      <c r="E144" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>164</v>
+      </c>
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" t="s">
+        <v>501</v>
+      </c>
+      <c r="D145" t="s">
+        <v>711</v>
+      </c>
+      <c r="E145" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>165</v>
+      </c>
+      <c r="B146" t="s">
+        <v>230</v>
+      </c>
+      <c r="C146" t="s">
+        <v>502</v>
+      </c>
+      <c r="D146" t="s">
+        <v>712</v>
+      </c>
+      <c r="E146" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>166</v>
+      </c>
+      <c r="B147" t="s">
+        <v>325</v>
+      </c>
+      <c r="C147" t="s">
+        <v>503</v>
+      </c>
+      <c r="D147" t="s">
+        <v>713</v>
+      </c>
+      <c r="E147" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>167</v>
+      </c>
+      <c r="B148" t="s">
+        <v>253</v>
+      </c>
+      <c r="C148" t="s">
+        <v>504</v>
+      </c>
+      <c r="D148" t="s">
+        <v>714</v>
+      </c>
+      <c r="E148" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>168</v>
+      </c>
+      <c r="B149" t="s">
+        <v>326</v>
+      </c>
+      <c r="C149" t="s">
+        <v>505</v>
+      </c>
+      <c r="D149" t="s">
+        <v>715</v>
+      </c>
+      <c r="E149" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>169</v>
+      </c>
+      <c r="B150" t="s">
+        <v>327</v>
+      </c>
+      <c r="C150" t="s">
+        <v>506</v>
+      </c>
+      <c r="D150" t="s">
+        <v>716</v>
+      </c>
+      <c r="E150" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>170</v>
+      </c>
+      <c r="B151" t="s">
+        <v>328</v>
+      </c>
+      <c r="C151" t="s">
+        <v>507</v>
+      </c>
+      <c r="D151" t="s">
+        <v>717</v>
+      </c>
+      <c r="E151" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>171</v>
+      </c>
+      <c r="B152" t="s">
+        <v>309</v>
+      </c>
+      <c r="C152" t="s">
+        <v>508</v>
+      </c>
+      <c r="D152" t="s">
+        <v>718</v>
+      </c>
+      <c r="E152" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>172</v>
+      </c>
+      <c r="B153" t="s">
+        <v>288</v>
+      </c>
+      <c r="C153" t="s">
+        <v>509</v>
+      </c>
+      <c r="D153" t="s">
+        <v>719</v>
+      </c>
+      <c r="E153" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>173</v>
+      </c>
+      <c r="B154" t="s">
+        <v>329</v>
+      </c>
+      <c r="C154" t="s">
+        <v>510</v>
+      </c>
+      <c r="D154" t="s">
+        <v>720</v>
+      </c>
+      <c r="E154" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>174</v>
+      </c>
+      <c r="B155" t="s">
+        <v>272</v>
+      </c>
+      <c r="C155" t="s">
+        <v>511</v>
+      </c>
+      <c r="D155" t="s">
+        <v>721</v>
+      </c>
+      <c r="E155" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>175</v>
+      </c>
+      <c r="B156" t="s">
+        <v>268</v>
+      </c>
+      <c r="C156" t="s">
+        <v>512</v>
+      </c>
+      <c r="D156" t="s">
+        <v>722</v>
+      </c>
+      <c r="E156" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>176</v>
+      </c>
+      <c r="B157" t="s">
+        <v>330</v>
+      </c>
+      <c r="C157" t="s">
+        <v>513</v>
+      </c>
+      <c r="D157" t="s">
+        <v>723</v>
+      </c>
+      <c r="E157" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>177</v>
+      </c>
+      <c r="B158" t="s">
+        <v>229</v>
+      </c>
+      <c r="C158" t="s">
+        <v>514</v>
+      </c>
+      <c r="D158" t="s">
+        <v>724</v>
+      </c>
+      <c r="E158" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>178</v>
+      </c>
+      <c r="B159" t="s">
+        <v>331</v>
+      </c>
+      <c r="C159" t="s">
+        <v>515</v>
+      </c>
+      <c r="D159" t="s">
+        <v>725</v>
+      </c>
+      <c r="E159" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>179</v>
+      </c>
+      <c r="B160" t="s">
+        <v>332</v>
+      </c>
+      <c r="C160" t="s">
+        <v>516</v>
+      </c>
+      <c r="D160" t="s">
+        <v>726</v>
+      </c>
+      <c r="E160" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>180</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>517</v>
+      </c>
+      <c r="D161" t="s">
+        <v>727</v>
+      </c>
+      <c r="E161" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>63</v>
+      </c>
+      <c r="B162" t="s">
+        <v>284</v>
+      </c>
+      <c r="C162" t="s">
+        <v>518</v>
+      </c>
+      <c r="D162" t="s">
+        <v>728</v>
+      </c>
+      <c r="E162" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>181</v>
+      </c>
+      <c r="B163" t="s">
+        <v>333</v>
+      </c>
+      <c r="C163" t="s">
+        <v>519</v>
+      </c>
+      <c r="D163" t="s">
+        <v>729</v>
+      </c>
+      <c r="E163" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>182</v>
+      </c>
+      <c r="B164" t="s">
+        <v>334</v>
+      </c>
+      <c r="C164" t="s">
+        <v>520</v>
+      </c>
+      <c r="D164" t="s">
+        <v>730</v>
+      </c>
+      <c r="E164" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>183</v>
+      </c>
+      <c r="B165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" t="s">
+        <v>521</v>
+      </c>
+      <c r="D165" t="s">
+        <v>731</v>
+      </c>
+      <c r="E165" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>184</v>
+      </c>
+      <c r="B166" t="s">
+        <v>335</v>
+      </c>
+      <c r="C166" t="s">
+        <v>522</v>
+      </c>
+      <c r="D166" t="s">
+        <v>732</v>
+      </c>
+      <c r="E166" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>185</v>
+      </c>
+      <c r="B167" t="s">
+        <v>336</v>
+      </c>
+      <c r="C167" t="s">
+        <v>523</v>
+      </c>
+      <c r="D167" t="s">
+        <v>733</v>
+      </c>
+      <c r="E167" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>186</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" t="s">
+        <v>524</v>
+      </c>
+      <c r="D168" t="s">
+        <v>734</v>
+      </c>
+      <c r="E168" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>187</v>
+      </c>
+      <c r="B169" t="s">
+        <v>337</v>
+      </c>
+      <c r="C169" t="s">
+        <v>525</v>
+      </c>
+      <c r="D169" t="s">
+        <v>735</v>
+      </c>
+      <c r="E169" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>188</v>
+      </c>
+      <c r="B170" t="s">
+        <v>279</v>
+      </c>
+      <c r="C170" t="s">
+        <v>526</v>
+      </c>
+      <c r="D170" t="s">
+        <v>736</v>
+      </c>
+      <c r="E170" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>189</v>
+      </c>
+      <c r="B171" t="s">
+        <v>281</v>
+      </c>
+      <c r="C171" t="s">
+        <v>527</v>
+      </c>
+      <c r="D171" t="s">
+        <v>737</v>
+      </c>
+      <c r="E171" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>190</v>
+      </c>
+      <c r="B172" t="s">
+        <v>21</v>
+      </c>
+      <c r="C172" t="s">
+        <v>528</v>
+      </c>
+      <c r="D172" t="s">
+        <v>738</v>
+      </c>
+      <c r="E172" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>191</v>
+      </c>
+      <c r="B173" t="s">
+        <v>230</v>
+      </c>
+      <c r="C173" t="s">
+        <v>529</v>
+      </c>
+      <c r="D173" t="s">
+        <v>739</v>
+      </c>
+      <c r="E173" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>192</v>
+      </c>
+      <c r="B174" t="s">
+        <v>338</v>
+      </c>
+      <c r="C174" t="s">
+        <v>530</v>
+      </c>
+      <c r="D174" t="s">
+        <v>740</v>
+      </c>
+      <c r="E174" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>193</v>
+      </c>
+      <c r="B175" t="s">
+        <v>339</v>
+      </c>
+      <c r="C175" t="s">
+        <v>531</v>
+      </c>
+      <c r="D175" t="s">
+        <v>741</v>
+      </c>
+      <c r="E175" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>194</v>
+      </c>
+      <c r="B176" t="s">
+        <v>340</v>
+      </c>
+      <c r="C176" t="s">
+        <v>532</v>
+      </c>
+      <c r="D176" t="s">
+        <v>742</v>
+      </c>
+      <c r="E176" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>195</v>
+      </c>
+      <c r="B177" t="s">
+        <v>258</v>
+      </c>
+      <c r="C177" t="s">
+        <v>533</v>
+      </c>
+      <c r="D177" t="s">
+        <v>743</v>
+      </c>
+      <c r="E177" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>196</v>
+      </c>
+      <c r="B178" t="s">
+        <v>280</v>
+      </c>
+      <c r="C178" t="s">
+        <v>534</v>
+      </c>
+      <c r="D178" t="s">
+        <v>744</v>
+      </c>
+      <c r="E178" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>197</v>
+      </c>
+      <c r="B179" t="s">
+        <v>341</v>
+      </c>
+      <c r="C179" t="s">
+        <v>535</v>
+      </c>
+      <c r="D179" t="s">
+        <v>745</v>
+      </c>
+      <c r="E179" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>198</v>
+      </c>
+      <c r="B180" t="s">
+        <v>17</v>
+      </c>
+      <c r="C180" t="s">
+        <v>536</v>
+      </c>
+      <c r="D180" t="s">
+        <v>746</v>
+      </c>
+      <c r="E180" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>199</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" t="s">
+        <v>537</v>
+      </c>
+      <c r="D181" t="s">
+        <v>747</v>
+      </c>
+      <c r="E181" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>200</v>
+      </c>
+      <c r="B182" t="s">
+        <v>342</v>
+      </c>
+      <c r="C182" t="s">
+        <v>538</v>
+      </c>
+      <c r="D182" t="s">
+        <v>748</v>
+      </c>
+      <c r="E182" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>201</v>
+      </c>
+      <c r="B183" t="s">
+        <v>20</v>
+      </c>
+      <c r="C183" t="s">
+        <v>539</v>
+      </c>
+      <c r="D183" t="s">
+        <v>749</v>
+      </c>
+      <c r="E183" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>202</v>
+      </c>
+      <c r="B184" t="s">
+        <v>286</v>
+      </c>
+      <c r="C184" t="s">
+        <v>540</v>
+      </c>
+      <c r="D184" t="s">
+        <v>750</v>
+      </c>
+      <c r="E184" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>203</v>
+      </c>
+      <c r="B185" t="s">
+        <v>229</v>
+      </c>
+      <c r="C185" t="s">
+        <v>541</v>
+      </c>
+      <c r="D185" t="s">
+        <v>751</v>
+      </c>
+      <c r="E185" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>204</v>
+      </c>
+      <c r="B186" t="s">
+        <v>343</v>
+      </c>
+      <c r="C186" t="s">
+        <v>542</v>
+      </c>
+      <c r="D186" t="s">
+        <v>752</v>
+      </c>
+      <c r="E186" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>205</v>
+      </c>
+      <c r="B187" t="s">
+        <v>344</v>
+      </c>
+      <c r="C187" t="s">
+        <v>543</v>
+      </c>
+      <c r="D187" t="s">
+        <v>753</v>
+      </c>
+      <c r="E187" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>206</v>
+      </c>
+      <c r="B188" t="s">
+        <v>345</v>
+      </c>
+      <c r="C188" t="s">
+        <v>544</v>
+      </c>
+      <c r="D188" t="s">
+        <v>754</v>
+      </c>
+      <c r="E188" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>207</v>
+      </c>
+      <c r="B189" t="s">
+        <v>346</v>
+      </c>
+      <c r="C189" t="s">
+        <v>545</v>
+      </c>
+      <c r="D189" t="s">
+        <v>755</v>
+      </c>
+      <c r="E189" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>208</v>
+      </c>
+      <c r="B190" t="s">
+        <v>347</v>
+      </c>
+      <c r="C190" t="s">
+        <v>546</v>
+      </c>
+      <c r="D190" t="s">
+        <v>756</v>
+      </c>
+      <c r="E190" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>208</v>
+      </c>
+      <c r="B191" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
+      <c r="C191" t="s">
+        <v>547</v>
+      </c>
+      <c r="D191" t="s">
+        <v>757</v>
+      </c>
+      <c r="E191" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>209</v>
+      </c>
+      <c r="B192" t="s">
+        <v>328</v>
+      </c>
+      <c r="C192" t="s">
+        <v>548</v>
+      </c>
+      <c r="D192" t="s">
+        <v>758</v>
+      </c>
+      <c r="E192" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>210</v>
+      </c>
+      <c r="B193" t="s">
+        <v>348</v>
+      </c>
+      <c r="C193" t="s">
+        <v>549</v>
+      </c>
+      <c r="D193" t="s">
+        <v>759</v>
+      </c>
+      <c r="E193" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>211</v>
+      </c>
+      <c r="B194" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" t="s">
+        <v>550</v>
+      </c>
+      <c r="D194" t="s">
+        <v>760</v>
+      </c>
+      <c r="E194" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>212</v>
+      </c>
+      <c r="B195" t="s">
+        <v>349</v>
+      </c>
+      <c r="C195" t="s">
+        <v>551</v>
+      </c>
+      <c r="D195" t="s">
+        <v>761</v>
+      </c>
+      <c r="E195" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>213</v>
+      </c>
+      <c r="B196" t="s">
+        <v>271</v>
+      </c>
+      <c r="C196" t="s">
+        <v>552</v>
+      </c>
+      <c r="D196" t="s">
+        <v>762</v>
+      </c>
+      <c r="E196" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>214</v>
+      </c>
+      <c r="B197" t="s">
+        <v>350</v>
+      </c>
+      <c r="C197" t="s">
+        <v>553</v>
+      </c>
+      <c r="D197" t="s">
+        <v>763</v>
+      </c>
+      <c r="E197" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>215</v>
+      </c>
+      <c r="B198" t="s">
+        <v>351</v>
+      </c>
+      <c r="C198" t="s">
+        <v>554</v>
+      </c>
+      <c r="D198" t="s">
+        <v>764</v>
+      </c>
+      <c r="E198" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>216</v>
+      </c>
+      <c r="B199" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" t="s">
+        <v>555</v>
+      </c>
+      <c r="D199" t="s">
+        <v>765</v>
+      </c>
+      <c r="E199" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>217</v>
+      </c>
+      <c r="B200" t="s">
+        <v>352</v>
+      </c>
+      <c r="C200" t="s">
+        <v>556</v>
+      </c>
+      <c r="D200" t="s">
+        <v>766</v>
+      </c>
+      <c r="E200" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>218</v>
+      </c>
+      <c r="B201" t="s">
+        <v>285</v>
+      </c>
+      <c r="C201" t="s">
+        <v>557</v>
+      </c>
+      <c r="D201" t="s">
+        <v>767</v>
+      </c>
+      <c r="E201" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>219</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>558</v>
+      </c>
+      <c r="D202" t="s">
+        <v>768</v>
+      </c>
+      <c r="E202" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>220</v>
+      </c>
+      <c r="B203" t="s">
+        <v>285</v>
+      </c>
+      <c r="C203" t="s">
+        <v>559</v>
+      </c>
+      <c r="D203" t="s">
+        <v>769</v>
+      </c>
+      <c r="E203" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>221</v>
+      </c>
+      <c r="B204" t="s">
+        <v>353</v>
+      </c>
+      <c r="C204" t="s">
+        <v>560</v>
+      </c>
+      <c r="D204" t="s">
+        <v>770</v>
+      </c>
+      <c r="E204" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>222</v>
+      </c>
+      <c r="B205" t="s">
+        <v>354</v>
+      </c>
+      <c r="C205" t="s">
+        <v>561</v>
+      </c>
+      <c r="D205" t="s">
+        <v>771</v>
+      </c>
+      <c r="E205" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>223</v>
+      </c>
+      <c r="B206" t="s">
+        <v>335</v>
+      </c>
+      <c r="C206" t="s">
+        <v>562</v>
+      </c>
+      <c r="D206" t="s">
+        <v>772</v>
+      </c>
+      <c r="E206" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>224</v>
+      </c>
+      <c r="B207" t="s">
+        <v>16</v>
+      </c>
+      <c r="C207" t="s">
+        <v>563</v>
+      </c>
+      <c r="D207" t="s">
+        <v>773</v>
+      </c>
+      <c r="E207" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>225</v>
+      </c>
+      <c r="B208" t="s">
+        <v>355</v>
+      </c>
+      <c r="C208" t="s">
+        <v>564</v>
+      </c>
+      <c r="D208" t="s">
+        <v>774</v>
+      </c>
+      <c r="E208" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>226</v>
+      </c>
+      <c r="B209" t="s">
+        <v>302</v>
+      </c>
+      <c r="C209" t="s">
+        <v>565</v>
+      </c>
+      <c r="D209" t="s">
+        <v>775</v>
+      </c>
+      <c r="E209" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>227</v>
+      </c>
+      <c r="B210" t="s">
+        <v>356</v>
+      </c>
+      <c r="C210" t="s">
+        <v>566</v>
+      </c>
+      <c r="D210" t="s">
+        <v>776</v>
+      </c>
+      <c r="E210" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>228</v>
+      </c>
+      <c r="B211" t="s">
+        <v>357</v>
+      </c>
+      <c r="C211" t="s">
+        <v>567</v>
+      </c>
+      <c r="D211" t="s">
+        <v>777</v>
+      </c>
+      <c r="E211" t="s">
+        <v>987</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>